--- a/2c Data.xlsx
+++ b/2c Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomfox/Documents/Uni/2.3/2c-Data-Science/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79DDBAF-E6F7-F547-AE7C-307F81AF1BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E91AC49-EB96-A841-97B8-1B5EC11D743D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="7180" windowWidth="30240" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="190">
   <si>
     <t>ID</t>
   </si>
@@ -586,6 +586,15 @@
   </si>
   <si>
     <t>group</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>LIS</t>
   </si>
 </sst>
 </file>
@@ -831,9 +840,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:BD35" totalsRowShown="0">
-  <autoFilter ref="A1:BD35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:BE35" totalsRowShown="0">
+  <autoFilter ref="A1:BE35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="57">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="54"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="53"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="52"/>
@@ -853,6 +862,7 @@
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Do you commute to work?" dataDxfId="38"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="How do you usually travel to work?" dataDxfId="37"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Do you have any respiratory or cardiovascular health issues?" dataDxfId="36"/>
+    <tableColumn id="57" xr3:uid="{2D9C5A88-048C-4442-8AC2-618E8DE310F8}" name="sample"/>
     <tableColumn id="56" xr3:uid="{24B4A9B8-4D5C-8847-B1BA-0A8BDFDCE126}" name="group"/>
     <tableColumn id="20" xr3:uid="{47E106B6-F14D-2641-88E8-78E1B3EF9561}" name="ID2" dataDxfId="35"/>
     <tableColumn id="21" xr3:uid="{85F82A03-E93C-7B45-B654-67B16550835C}" name="health" dataDxfId="34"/>
@@ -1192,18 +1202,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD35"/>
+  <dimension ref="A1:BE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="19" width="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1262,118 +1273,121 @@
         <v>13</v>
       </c>
       <c r="T1" t="s">
+        <v>187</v>
+      </c>
+      <c r="U1" t="s">
         <v>186</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>47</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>176</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>57</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>97</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>60</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>63</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>64</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>65</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>103</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>104</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>105</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>109</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>110</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>111</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>66</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>67</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>68</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>69</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>119</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>70</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>71</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>98</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>99</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>100</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>101</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>106</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>107</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>118</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>108</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>117</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>122</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>123</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>162</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1424,41 +1438,41 @@
         <v>25</v>
       </c>
       <c r="T2" t="s">
+        <v>188</v>
+      </c>
+      <c r="U2" t="s">
         <v>182</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>177</v>
       </c>
-      <c r="V2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="X2" s="4">
+      <c r="Y2" s="4">
         <v>57000</v>
       </c>
-      <c r="Y2">
-        <v>2</v>
-      </c>
-      <c r="Z2" s="2">
+      <c r="Z2">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="2">
         <v>30000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>3.6</v>
       </c>
-      <c r="AB2">
-        <v>2</v>
-      </c>
       <c r="AC2">
+        <v>2</v>
+      </c>
+      <c r="AD2">
         <v>3000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>6</v>
       </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
       <c r="AF2">
         <v>0</v>
       </c>
@@ -1475,41 +1489,41 @@
         <v>0</v>
       </c>
       <c r="AK2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL2">
+        <v>2</v>
+      </c>
+      <c r="AM2">
         <v>2.6</v>
-      </c>
-      <c r="AM2">
-        <v>4</v>
       </c>
       <c r="AN2">
         <v>4</v>
       </c>
       <c r="AO2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP2">
+        <v>2</v>
+      </c>
+      <c r="AQ2">
         <v>24000</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>3.6</v>
       </c>
-      <c r="AR2">
-        <v>2</v>
-      </c>
       <c r="AS2">
+        <v>2</v>
+      </c>
+      <c r="AT2">
         <v>4.8</v>
       </c>
-      <c r="AT2">
-        <v>2</v>
-      </c>
       <c r="AU2">
+        <v>2</v>
+      </c>
+      <c r="AV2">
         <v>4.8</v>
       </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
       <c r="AW2">
         <v>0</v>
       </c>
@@ -1523,19 +1537,22 @@
         <v>0</v>
       </c>
       <c r="BA2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB2">
+        <v>2</v>
+      </c>
+      <c r="BC2">
         <v>2.4</v>
       </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
       <c r="BD2">
         <v>0</v>
       </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1586,32 +1603,32 @@
         <v>25</v>
       </c>
       <c r="T3" t="s">
+        <v>188</v>
+      </c>
+      <c r="U3" t="s">
         <v>183</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>178</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="X3" s="2">
+      <c r="Y3" s="2">
         <v>64000</v>
       </c>
-      <c r="Y3">
-        <v>2</v>
-      </c>
       <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AA3">
         <v>30000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>3.6</v>
       </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
       <c r="AC3">
         <v>0</v>
       </c>
@@ -1619,76 +1636,79 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF3">
+        <v>2</v>
+      </c>
+      <c r="AG3">
         <v>10000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>6.8</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>3</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>2.6</v>
       </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AO3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP3">
+        <v>2</v>
+      </c>
+      <c r="AQ3">
         <v>24000</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>3.6</v>
       </c>
-      <c r="AR3">
-        <v>2</v>
-      </c>
       <c r="AS3">
+        <v>2</v>
+      </c>
+      <c r="AT3">
         <v>3.6</v>
       </c>
-      <c r="AT3">
+      <c r="AU3">
         <v>3</v>
       </c>
-      <c r="AU3">
+      <c r="AV3">
         <v>6.6</v>
       </c>
-      <c r="AV3">
-        <v>1</v>
-      </c>
       <c r="AW3">
+        <v>1</v>
+      </c>
+      <c r="AX3">
         <v>1.5</v>
       </c>
-      <c r="AX3">
-        <v>1</v>
-      </c>
       <c r="AY3">
+        <v>1</v>
+      </c>
+      <c r="AZ3">
         <v>2.7</v>
       </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
       <c r="BA3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB3">
+        <v>2</v>
+      </c>
+      <c r="BC3">
         <v>1.4</v>
       </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
       <c r="BD3">
         <v>0</v>
       </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1739,32 +1759,32 @@
         <v>18</v>
       </c>
       <c r="T4" t="s">
+        <v>188</v>
+      </c>
+      <c r="U4" t="s">
         <v>182</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>179</v>
       </c>
-      <c r="V4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" t="s">
+        <v>25</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="X4" s="4">
+      <c r="Y4" s="4">
         <v>90000</v>
       </c>
-      <c r="Y4">
-        <v>2</v>
-      </c>
       <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4">
         <v>30000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>6.6</v>
       </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
       <c r="AC4">
         <v>0</v>
       </c>
@@ -1781,50 +1801,50 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI4">
+        <v>2</v>
+      </c>
+      <c r="AJ4">
         <v>36000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>7.2</v>
       </c>
-      <c r="AK4">
-        <v>2</v>
-      </c>
       <c r="AL4">
+        <v>2</v>
+      </c>
+      <c r="AM4">
         <v>2.4</v>
       </c>
-      <c r="AM4">
-        <v>1</v>
-      </c>
       <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>2.4</v>
       </c>
-      <c r="AO4">
-        <v>2</v>
-      </c>
       <c r="AP4">
+        <v>2</v>
+      </c>
+      <c r="AQ4">
         <v>24000</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>3.6</v>
       </c>
-      <c r="AR4">
-        <v>1</v>
-      </c>
       <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
         <v>3.6</v>
       </c>
-      <c r="AT4">
-        <v>2</v>
-      </c>
       <c r="AU4">
+        <v>2</v>
+      </c>
+      <c r="AV4">
         <v>4.8</v>
       </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
       <c r="AW4">
         <v>0</v>
       </c>
@@ -1838,19 +1858,22 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB4">
+        <v>2</v>
+      </c>
+      <c r="BC4">
         <v>2.4</v>
       </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
       <c r="BD4">
         <v>0</v>
       </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1901,50 +1924,50 @@
         <v>25</v>
       </c>
       <c r="T5" t="s">
+        <v>188</v>
+      </c>
+      <c r="U5" t="s">
         <v>183</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>180</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="X5" s="2">
+      <c r="Y5" s="2">
         <v>60500</v>
       </c>
-      <c r="Y5">
-        <v>2</v>
-      </c>
       <c r="Z5">
+        <v>2</v>
+      </c>
+      <c r="AA5">
         <v>30000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>5.6</v>
       </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
       <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
         <v>1500</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>3</v>
       </c>
-      <c r="AE5">
-        <v>1</v>
-      </c>
       <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
         <v>5000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>3.6</v>
       </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
       <c r="AI5">
         <v>0</v>
       </c>
@@ -1952,41 +1975,41 @@
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL5">
+        <v>2</v>
+      </c>
+      <c r="AM5">
         <v>2.4</v>
       </c>
-      <c r="AM5">
-        <v>2</v>
-      </c>
       <c r="AN5">
+        <v>2</v>
+      </c>
+      <c r="AO5">
         <v>3</v>
       </c>
-      <c r="AO5">
-        <v>2</v>
-      </c>
       <c r="AP5">
+        <v>2</v>
+      </c>
+      <c r="AQ5">
         <v>24000</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>3.6</v>
       </c>
-      <c r="AR5">
-        <v>1</v>
-      </c>
       <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
         <v>2.8</v>
       </c>
-      <c r="AT5">
-        <v>2</v>
-      </c>
       <c r="AU5">
+        <v>2</v>
+      </c>
+      <c r="AV5">
         <v>5.2</v>
       </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
       <c r="AW5">
         <v>0</v>
       </c>
@@ -2000,19 +2023,22 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB5">
+        <v>2</v>
+      </c>
+      <c r="BC5">
         <v>2.4</v>
       </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
       <c r="BD5">
         <v>0</v>
       </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2060,50 +2086,50 @@
         <v>25</v>
       </c>
       <c r="T6" t="s">
+        <v>188</v>
+      </c>
+      <c r="U6" t="s">
         <v>182</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>181</v>
       </c>
-      <c r="V6" t="s">
-        <v>25</v>
-      </c>
-      <c r="W6" s="3" t="s">
+      <c r="W6" t="s">
+        <v>25</v>
+      </c>
+      <c r="X6" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="X6" s="2">
+      <c r="Y6" s="2">
         <v>67000</v>
       </c>
-      <c r="Y6">
-        <v>2</v>
-      </c>
       <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
         <v>30000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>6</v>
       </c>
-      <c r="AB6">
-        <v>2</v>
-      </c>
       <c r="AC6">
+        <v>2</v>
+      </c>
+      <c r="AD6">
         <v>3000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>6</v>
       </c>
-      <c r="AE6">
-        <v>2</v>
-      </c>
       <c r="AF6">
+        <v>2</v>
+      </c>
+      <c r="AG6">
         <v>10000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>7.2</v>
       </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
       <c r="AI6">
         <v>0</v>
       </c>
@@ -2111,29 +2137,29 @@
         <v>0</v>
       </c>
       <c r="AK6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL6">
+        <v>2</v>
+      </c>
+      <c r="AM6">
         <v>1.8</v>
       </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
       <c r="AN6">
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP6">
+        <v>2</v>
+      </c>
+      <c r="AQ6">
         <v>24000</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>4</v>
       </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
       <c r="AS6">
         <v>0</v>
       </c>
@@ -2159,19 +2185,22 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB6">
         <v>2</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD6">
         <v>0</v>
       </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -2222,41 +2251,41 @@
         <v>25</v>
       </c>
       <c r="T7" t="s">
+        <v>189</v>
+      </c>
+      <c r="U7" t="s">
         <v>184</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>48</v>
       </c>
-      <c r="V7" t="s">
-        <v>25</v>
-      </c>
-      <c r="W7" s="3" t="s">
+      <c r="W7" t="s">
+        <v>25</v>
+      </c>
+      <c r="X7" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>93000</v>
       </c>
-      <c r="Y7">
-        <v>2</v>
-      </c>
       <c r="Z7">
+        <v>2</v>
+      </c>
+      <c r="AA7">
         <v>30000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AB7">
-        <v>2</v>
-      </c>
       <c r="AC7">
+        <v>2</v>
+      </c>
+      <c r="AD7">
         <v>3000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>6.4</v>
       </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
       <c r="AF7">
         <v>0</v>
       </c>
@@ -2264,38 +2293,38 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI7">
+        <v>2</v>
+      </c>
+      <c r="AJ7">
         <v>36000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>6</v>
       </c>
-      <c r="AK7">
-        <v>2</v>
-      </c>
       <c r="AL7">
+        <v>2</v>
+      </c>
+      <c r="AM7">
         <v>3</v>
       </c>
-      <c r="AM7">
-        <v>2</v>
-      </c>
       <c r="AN7">
+        <v>2</v>
+      </c>
+      <c r="AO7">
         <v>1.4</v>
       </c>
-      <c r="AO7">
-        <v>2</v>
-      </c>
       <c r="AP7">
+        <v>2</v>
+      </c>
+      <c r="AQ7">
         <v>24000</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>4.2</v>
       </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
       <c r="AS7">
         <v>0</v>
       </c>
@@ -2321,19 +2350,22 @@
         <v>0</v>
       </c>
       <c r="BA7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB7">
+        <v>2</v>
+      </c>
+      <c r="BC7">
         <v>1.4</v>
       </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
       <c r="BD7">
         <v>0</v>
       </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -2384,41 +2416,41 @@
         <v>25</v>
       </c>
       <c r="T8" t="s">
+        <v>189</v>
+      </c>
+      <c r="U8" t="s">
         <v>185</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>49</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>18</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="X8" s="2">
+      <c r="Y8" s="2">
         <v>75000</v>
       </c>
-      <c r="Y8">
-        <v>2</v>
-      </c>
       <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AA8">
         <v>30000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>6.5</v>
       </c>
-      <c r="AB8">
-        <v>2</v>
-      </c>
       <c r="AC8">
+        <v>2</v>
+      </c>
+      <c r="AD8">
         <v>3000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>6</v>
       </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
       <c r="AF8">
         <v>0</v>
       </c>
@@ -2426,76 +2458,79 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
         <v>18000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>3.6</v>
       </c>
-      <c r="AK8">
-        <v>1</v>
-      </c>
       <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>1.2</v>
       </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
       <c r="AN8">
         <v>0</v>
       </c>
       <c r="AO8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP8">
+        <v>2</v>
+      </c>
+      <c r="AQ8">
         <v>24000</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>3</v>
       </c>
-      <c r="AR8">
-        <v>1</v>
-      </c>
       <c r="AS8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
         <v>2.7</v>
       </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
       <c r="AW8">
         <v>0</v>
       </c>
       <c r="AX8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8">
+        <v>1</v>
+      </c>
+      <c r="AZ8">
         <v>2.7</v>
       </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
       <c r="BA8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB8">
         <v>2</v>
       </c>
       <c r="BC8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD8">
         <v>0</v>
       </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -2546,50 +2581,50 @@
         <v>18</v>
       </c>
       <c r="T9" t="s">
+        <v>189</v>
+      </c>
+      <c r="U9" t="s">
         <v>184</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>50</v>
       </c>
-      <c r="V9" t="s">
-        <v>25</v>
-      </c>
-      <c r="W9" s="3" t="s">
+      <c r="W9" t="s">
+        <v>25</v>
+      </c>
+      <c r="X9" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="X9" s="2">
+      <c r="Y9" s="2">
         <v>62000</v>
       </c>
-      <c r="Y9">
-        <v>2</v>
-      </c>
       <c r="Z9">
+        <v>2</v>
+      </c>
+      <c r="AA9">
         <v>30000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>3.6</v>
       </c>
-      <c r="AB9">
-        <v>2</v>
-      </c>
       <c r="AC9">
+        <v>2</v>
+      </c>
+      <c r="AD9">
         <v>3000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>6</v>
       </c>
-      <c r="AE9">
-        <v>1</v>
-      </c>
       <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
         <v>5000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>3.6</v>
       </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
       <c r="AI9">
         <v>0</v>
       </c>
@@ -2597,67 +2632,70 @@
         <v>0</v>
       </c>
       <c r="AK9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL9">
+        <v>2</v>
+      </c>
+      <c r="AM9">
         <v>2.4</v>
       </c>
-      <c r="AM9">
-        <v>2</v>
-      </c>
       <c r="AN9">
+        <v>2</v>
+      </c>
+      <c r="AO9">
         <v>1.2</v>
       </c>
-      <c r="AO9">
-        <v>2</v>
-      </c>
       <c r="AP9">
+        <v>2</v>
+      </c>
+      <c r="AQ9">
         <v>24000</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <v>3.3</v>
       </c>
-      <c r="AR9">
-        <v>1</v>
-      </c>
       <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AT9">
         <v>1.2</v>
       </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
       <c r="AU9">
         <v>0</v>
       </c>
       <c r="AV9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW9">
+        <v>1</v>
+      </c>
+      <c r="AX9">
         <v>1.5</v>
       </c>
-      <c r="AX9">
-        <v>1</v>
-      </c>
       <c r="AY9">
+        <v>1</v>
+      </c>
+      <c r="AZ9">
         <v>1.2</v>
       </c>
-      <c r="AZ9">
-        <v>1</v>
-      </c>
       <c r="BA9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB9">
+        <v>2</v>
+      </c>
+      <c r="BC9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="BC9">
-        <v>0</v>
-      </c>
       <c r="BD9">
         <v>0</v>
       </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -2708,50 +2746,50 @@
         <v>25</v>
       </c>
       <c r="T10" t="s">
+        <v>189</v>
+      </c>
+      <c r="U10" t="s">
         <v>185</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>51</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>18</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="X10" s="2">
+      <c r="Y10" s="2">
         <v>67000</v>
       </c>
-      <c r="Y10">
-        <v>2</v>
-      </c>
       <c r="Z10">
+        <v>2</v>
+      </c>
+      <c r="AA10">
         <v>30000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>3.6</v>
       </c>
-      <c r="AB10">
-        <v>2</v>
-      </c>
       <c r="AC10">
+        <v>2</v>
+      </c>
+      <c r="AD10">
         <v>3000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>4.8</v>
       </c>
-      <c r="AE10">
-        <v>2</v>
-      </c>
       <c r="AF10">
+        <v>2</v>
+      </c>
+      <c r="AG10">
         <v>10000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>6.2</v>
       </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
       <c r="AI10">
         <v>0</v>
       </c>
@@ -2759,67 +2797,70 @@
         <v>0</v>
       </c>
       <c r="AK10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL10">
+        <v>2</v>
+      </c>
+      <c r="AM10">
         <v>0.6</v>
       </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
       <c r="AN10">
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP10">
+        <v>2</v>
+      </c>
+      <c r="AQ10">
         <v>24000</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <v>3.6</v>
       </c>
-      <c r="AR10">
-        <v>2</v>
-      </c>
       <c r="AS10">
+        <v>2</v>
+      </c>
+      <c r="AT10">
         <v>3.3</v>
       </c>
-      <c r="AT10">
-        <v>2</v>
-      </c>
       <c r="AU10">
+        <v>2</v>
+      </c>
+      <c r="AV10">
         <v>3.3</v>
       </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
       <c r="AW10">
         <v>0</v>
       </c>
       <c r="AX10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10">
+        <v>1</v>
+      </c>
+      <c r="AZ10">
         <v>2.7</v>
       </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
       <c r="BA10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10">
         <v>1</v>
       </c>
       <c r="BC10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD10">
         <v>0</v>
       </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -2870,41 +2911,41 @@
         <v>25</v>
       </c>
       <c r="T11" t="s">
+        <v>189</v>
+      </c>
+      <c r="U11" t="s">
         <v>184</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>52</v>
       </c>
-      <c r="V11" t="s">
-        <v>25</v>
-      </c>
-      <c r="W11" s="3" t="s">
+      <c r="W11" t="s">
+        <v>25</v>
+      </c>
+      <c r="X11" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="X11" s="2">
+      <c r="Y11" s="2">
         <v>57000</v>
       </c>
-      <c r="Y11">
-        <v>2</v>
-      </c>
       <c r="Z11">
+        <v>2</v>
+      </c>
+      <c r="AA11">
         <v>30000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>5.4</v>
       </c>
-      <c r="AB11">
-        <v>2</v>
-      </c>
       <c r="AC11">
+        <v>2</v>
+      </c>
+      <c r="AD11">
         <v>3000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>6</v>
       </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
       <c r="AF11">
         <v>0</v>
       </c>
@@ -2921,35 +2962,35 @@
         <v>0</v>
       </c>
       <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
         <v>4</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>4.8</v>
       </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
       <c r="AN11">
         <v>0</v>
       </c>
       <c r="AO11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP11">
+        <v>2</v>
+      </c>
+      <c r="AQ11">
         <v>24000</v>
       </c>
-      <c r="AQ11">
+      <c r="AR11">
         <v>3.6</v>
       </c>
-      <c r="AR11">
-        <v>1</v>
-      </c>
       <c r="AS11">
+        <v>1</v>
+      </c>
+      <c r="AT11">
         <v>1.2</v>
       </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
       <c r="AU11">
         <v>0</v>
       </c>
@@ -2966,22 +3007,25 @@
         <v>0</v>
       </c>
       <c r="AZ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11">
+        <v>1</v>
+      </c>
+      <c r="BB11">
         <v>4</v>
       </c>
-      <c r="BB11">
+      <c r="BC11">
         <v>4.8</v>
       </c>
-      <c r="BC11">
-        <v>0</v>
-      </c>
       <c r="BD11">
         <v>0</v>
       </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -3032,32 +3076,32 @@
         <v>25</v>
       </c>
       <c r="T12" t="s">
+        <v>189</v>
+      </c>
+      <c r="U12" t="s">
         <v>185</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>53</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>18</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="X12" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X12" s="2">
+      <c r="Y12" s="2">
         <v>109000</v>
       </c>
-      <c r="Y12">
-        <v>2</v>
-      </c>
       <c r="Z12">
+        <v>2</v>
+      </c>
+      <c r="AA12">
         <v>30000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>3.6</v>
       </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
       <c r="AC12">
         <v>0</v>
       </c>
@@ -3065,85 +3109,88 @@
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF12">
+        <v>2</v>
+      </c>
+      <c r="AG12">
         <v>19000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>6.7</v>
       </c>
-      <c r="AH12">
-        <v>2</v>
-      </c>
       <c r="AI12">
+        <v>2</v>
+      </c>
+      <c r="AJ12">
         <v>36000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>6.4</v>
       </c>
-      <c r="AK12">
-        <v>2</v>
-      </c>
       <c r="AL12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN12">
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP12">
+        <v>2</v>
+      </c>
+      <c r="AQ12">
         <v>24000</v>
       </c>
-      <c r="AQ12">
+      <c r="AR12">
         <v>3.6</v>
       </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
       <c r="AS12">
         <v>0</v>
       </c>
       <c r="AT12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU12">
+        <v>2</v>
+      </c>
+      <c r="AV12">
         <v>4.2</v>
       </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
       <c r="AW12">
         <v>0</v>
       </c>
       <c r="AX12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12">
+        <v>1</v>
+      </c>
+      <c r="AZ12">
         <v>3</v>
       </c>
-      <c r="AZ12">
-        <v>0</v>
-      </c>
       <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
         <v>3</v>
       </c>
-      <c r="BB12">
+      <c r="BC12">
         <v>1.5</v>
       </c>
-      <c r="BC12">
-        <v>0</v>
-      </c>
       <c r="BD12">
         <v>0</v>
       </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3191,50 +3238,50 @@
         <v>25</v>
       </c>
       <c r="T13" t="s">
+        <v>189</v>
+      </c>
+      <c r="U13" t="s">
         <v>184</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>54</v>
       </c>
-      <c r="V13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W13" s="3" t="s">
+      <c r="W13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="X13" s="2">
+      <c r="Y13" s="2">
         <v>97000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>4</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>60000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>7.8</v>
       </c>
-      <c r="AB13">
-        <v>2</v>
-      </c>
       <c r="AC13">
+        <v>2</v>
+      </c>
+      <c r="AD13">
         <v>3000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>4.8</v>
       </c>
-      <c r="AE13">
-        <v>2</v>
-      </c>
       <c r="AF13">
+        <v>2</v>
+      </c>
+      <c r="AG13">
         <v>10000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>6.4</v>
       </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
       <c r="AI13">
         <v>0</v>
       </c>
@@ -3242,41 +3289,41 @@
         <v>0</v>
       </c>
       <c r="AK13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN13">
+        <v>2</v>
+      </c>
+      <c r="AO13">
         <v>0.7</v>
       </c>
-      <c r="AO13">
-        <v>2</v>
-      </c>
       <c r="AP13">
+        <v>2</v>
+      </c>
+      <c r="AQ13">
         <v>24000</v>
       </c>
-      <c r="AQ13">
+      <c r="AR13">
         <v>3</v>
       </c>
-      <c r="AR13">
-        <v>1</v>
-      </c>
       <c r="AS13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT13">
         <v>2</v>
       </c>
       <c r="AU13">
+        <v>2</v>
+      </c>
+      <c r="AV13">
         <v>3</v>
       </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
       <c r="AW13">
         <v>0</v>
       </c>
@@ -3290,19 +3337,22 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13">
+        <v>1</v>
+      </c>
+      <c r="BC13">
         <v>0.3</v>
       </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
       <c r="BD13">
         <v>0</v>
       </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -3350,32 +3400,32 @@
         <v>25</v>
       </c>
       <c r="T14" t="s">
+        <v>189</v>
+      </c>
+      <c r="U14" t="s">
         <v>185</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>55</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>18</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="X14" s="2">
+      <c r="Y14" s="2">
         <v>64000</v>
       </c>
-      <c r="Y14">
-        <v>2</v>
-      </c>
       <c r="Z14">
+        <v>2</v>
+      </c>
+      <c r="AA14">
         <v>64000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>3.6</v>
       </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
       <c r="AC14">
         <v>0</v>
       </c>
@@ -3383,17 +3433,17 @@
         <v>0</v>
       </c>
       <c r="AE14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF14">
+        <v>2</v>
+      </c>
+      <c r="AG14">
         <v>10000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>7.2</v>
       </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
       <c r="AI14">
         <v>0</v>
       </c>
@@ -3401,67 +3451,70 @@
         <v>0</v>
       </c>
       <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
         <v>4</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>3.6</v>
       </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
       <c r="AN14">
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP14">
+        <v>2</v>
+      </c>
+      <c r="AQ14">
         <v>24000</v>
       </c>
-      <c r="AQ14">
+      <c r="AR14">
         <v>3.6</v>
       </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
       <c r="AS14">
         <v>0</v>
       </c>
       <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
         <v>3</v>
       </c>
-      <c r="AU14">
+      <c r="AV14">
         <v>6.4</v>
       </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
       <c r="AW14">
         <v>0</v>
       </c>
       <c r="AX14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY14">
+        <v>2</v>
+      </c>
+      <c r="AZ14">
         <v>5.4</v>
       </c>
-      <c r="AZ14">
-        <v>1</v>
-      </c>
       <c r="BA14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB14">
+        <v>2</v>
+      </c>
+      <c r="BC14">
         <v>1.4</v>
       </c>
-      <c r="BC14">
-        <v>0</v>
-      </c>
       <c r="BD14">
         <v>0</v>
       </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3512,32 +3565,32 @@
         <v>25</v>
       </c>
       <c r="T15" t="s">
+        <v>189</v>
+      </c>
+      <c r="U15" t="s">
         <v>184</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>56</v>
       </c>
-      <c r="V15" t="s">
-        <v>25</v>
-      </c>
-      <c r="W15" s="3" t="s">
+      <c r="W15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="X15" s="2">
+      <c r="Y15" s="2">
         <v>90000</v>
       </c>
-      <c r="Y15">
-        <v>2</v>
-      </c>
       <c r="Z15">
+        <v>2</v>
+      </c>
+      <c r="AA15">
         <v>30000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>5</v>
       </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
       <c r="AC15">
         <v>0</v>
       </c>
@@ -3554,50 +3607,50 @@
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI15">
+        <v>2</v>
+      </c>
+      <c r="AJ15">
         <v>36000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>7.2</v>
       </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN15">
+        <v>2</v>
+      </c>
+      <c r="AO15">
         <v>1.2</v>
       </c>
-      <c r="AO15">
-        <v>2</v>
-      </c>
       <c r="AP15">
+        <v>2</v>
+      </c>
+      <c r="AQ15">
         <v>24000</v>
       </c>
-      <c r="AQ15">
+      <c r="AR15">
         <v>3.6</v>
       </c>
-      <c r="AR15">
-        <v>2</v>
-      </c>
       <c r="AS15">
+        <v>2</v>
+      </c>
+      <c r="AT15">
         <v>5.2</v>
       </c>
-      <c r="AT15">
+      <c r="AU15">
         <v>4</v>
       </c>
-      <c r="AU15">
+      <c r="AV15">
         <v>7.6</v>
       </c>
-      <c r="AV15">
-        <v>0</v>
-      </c>
       <c r="AW15">
         <v>0</v>
       </c>
@@ -3611,19 +3664,22 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB15">
+        <v>2</v>
+      </c>
+      <c r="BC15">
         <v>2.4</v>
       </c>
-      <c r="BC15">
-        <v>0</v>
-      </c>
       <c r="BD15">
         <v>0</v>
       </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3674,32 +3730,32 @@
         <v>25</v>
       </c>
       <c r="T16" t="s">
+        <v>189</v>
+      </c>
+      <c r="U16" t="s">
         <v>185</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>127</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>18</v>
       </c>
-      <c r="W16" s="3" t="s">
+      <c r="X16" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="X16" s="2">
+      <c r="Y16" s="2">
         <v>72000</v>
       </c>
-      <c r="Y16">
-        <v>2</v>
-      </c>
       <c r="Z16">
+        <v>2</v>
+      </c>
+      <c r="AA16">
         <v>30000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>3.6</v>
       </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
       <c r="AC16">
         <v>0</v>
       </c>
@@ -3716,76 +3772,79 @@
         <v>0</v>
       </c>
       <c r="AH16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AJ16">
         <v>18000</v>
-      </c>
-      <c r="AJ16">
-        <v>3</v>
       </c>
       <c r="AK16">
         <v>3</v>
       </c>
       <c r="AL16">
+        <v>3</v>
+      </c>
+      <c r="AM16">
         <v>3.1</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>4</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>3.2</v>
       </c>
-      <c r="AO16">
-        <v>2</v>
-      </c>
       <c r="AP16">
+        <v>2</v>
+      </c>
+      <c r="AQ16">
         <v>24000</v>
       </c>
-      <c r="AQ16">
+      <c r="AR16">
         <v>4</v>
       </c>
-      <c r="AR16">
-        <v>1</v>
-      </c>
       <c r="AS16">
+        <v>1</v>
+      </c>
+      <c r="AT16">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
       <c r="AU16">
         <v>0</v>
       </c>
       <c r="AV16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW16">
+        <v>1</v>
+      </c>
+      <c r="AX16">
         <v>2.1</v>
       </c>
-      <c r="AX16">
-        <v>1</v>
-      </c>
       <c r="AY16">
+        <v>1</v>
+      </c>
+      <c r="AZ16">
         <v>1.2</v>
       </c>
-      <c r="AZ16">
-        <v>0</v>
-      </c>
       <c r="BA16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB16">
+        <v>2</v>
+      </c>
+      <c r="BC16">
         <v>2.1</v>
       </c>
-      <c r="BC16">
-        <v>0</v>
-      </c>
       <c r="BD16">
         <v>0</v>
       </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3836,32 +3895,32 @@
         <v>25</v>
       </c>
       <c r="T17" t="s">
+        <v>189</v>
+      </c>
+      <c r="U17" t="s">
         <v>184</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>129</v>
       </c>
-      <c r="V17" t="s">
-        <v>25</v>
-      </c>
-      <c r="W17" s="3" t="s">
+      <c r="W17" t="s">
+        <v>25</v>
+      </c>
+      <c r="X17" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="X17" s="2">
+      <c r="Y17" s="2">
         <v>64000</v>
       </c>
-      <c r="Y17">
-        <v>2</v>
-      </c>
       <c r="Z17">
+        <v>2</v>
+      </c>
+      <c r="AA17">
         <v>30000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>6</v>
       </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
       <c r="AC17">
         <v>0</v>
       </c>
@@ -3869,17 +3928,17 @@
         <v>0</v>
       </c>
       <c r="AE17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF17">
+        <v>2</v>
+      </c>
+      <c r="AG17">
         <v>10000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>7.2</v>
       </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
       <c r="AI17">
         <v>0</v>
       </c>
@@ -3887,67 +3946,70 @@
         <v>0</v>
       </c>
       <c r="AK17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM17">
         <v>1</v>
       </c>
       <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>0.7</v>
       </c>
-      <c r="AO17">
-        <v>2</v>
-      </c>
       <c r="AP17">
+        <v>2</v>
+      </c>
+      <c r="AQ17">
         <v>24000</v>
       </c>
-      <c r="AQ17">
+      <c r="AR17">
         <v>4</v>
       </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
       <c r="AS17">
         <v>0</v>
       </c>
       <c r="AT17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU17">
+        <v>2</v>
+      </c>
+      <c r="AV17">
         <v>3.9</v>
       </c>
-      <c r="AV17">
-        <v>1</v>
-      </c>
       <c r="AW17">
+        <v>1</v>
+      </c>
+      <c r="AX17">
         <v>1.5</v>
       </c>
-      <c r="AX17">
-        <v>2</v>
-      </c>
       <c r="AY17">
+        <v>2</v>
+      </c>
+      <c r="AZ17">
         <v>3.9</v>
       </c>
-      <c r="AZ17">
-        <v>0</v>
-      </c>
       <c r="BA17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB17">
+        <v>2</v>
+      </c>
+      <c r="BC17">
         <v>1.2</v>
       </c>
-      <c r="BC17">
-        <v>0</v>
-      </c>
       <c r="BD17">
         <v>0</v>
       </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -3998,32 +4060,32 @@
         <v>18</v>
       </c>
       <c r="T18" t="s">
+        <v>189</v>
+      </c>
+      <c r="U18" t="s">
         <v>185</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>131</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>18</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="X18" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="X18" s="2">
+      <c r="Y18" s="2">
         <v>90000</v>
       </c>
-      <c r="Y18">
-        <v>2</v>
-      </c>
       <c r="Z18">
+        <v>2</v>
+      </c>
+      <c r="AA18">
         <v>30000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>5.3</v>
       </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
       <c r="AC18">
         <v>0</v>
       </c>
@@ -4040,76 +4102,79 @@
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI18">
+        <v>2</v>
+      </c>
+      <c r="AJ18">
         <v>36000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>6</v>
       </c>
-      <c r="AK18">
-        <v>2</v>
-      </c>
       <c r="AL18">
+        <v>2</v>
+      </c>
+      <c r="AM18">
         <v>1.4</v>
       </c>
-      <c r="AM18">
-        <v>2</v>
-      </c>
       <c r="AN18">
+        <v>2</v>
+      </c>
+      <c r="AO18">
         <v>6</v>
       </c>
-      <c r="AO18">
-        <v>2</v>
-      </c>
       <c r="AP18">
+        <v>2</v>
+      </c>
+      <c r="AQ18">
         <v>24000</v>
       </c>
-      <c r="AQ18">
+      <c r="AR18">
         <v>3.6</v>
       </c>
-      <c r="AR18">
-        <v>1</v>
-      </c>
       <c r="AS18">
+        <v>1</v>
+      </c>
+      <c r="AT18">
         <v>1.9</v>
       </c>
-      <c r="AT18">
+      <c r="AU18">
         <v>3</v>
       </c>
-      <c r="AU18">
+      <c r="AV18">
         <v>4.3</v>
       </c>
-      <c r="AV18">
-        <v>2</v>
-      </c>
       <c r="AW18">
+        <v>2</v>
+      </c>
+      <c r="AX18">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AX18">
-        <v>0</v>
-      </c>
       <c r="AY18">
         <v>0</v>
       </c>
       <c r="AZ18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA18">
         <v>2</v>
       </c>
       <c r="BB18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD18">
         <v>0</v>
       </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -4163,32 +4228,32 @@
         <v>25</v>
       </c>
       <c r="T19" t="s">
+        <v>188</v>
+      </c>
+      <c r="U19" t="s">
         <v>183</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>132</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>18</v>
       </c>
-      <c r="W19" s="3" t="s">
+      <c r="X19" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="X19" s="2">
+      <c r="Y19" s="2">
         <v>40000</v>
       </c>
-      <c r="Y19">
-        <v>2</v>
-      </c>
       <c r="Z19">
+        <v>2</v>
+      </c>
+      <c r="AA19">
         <v>30000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>3.6</v>
       </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
       <c r="AC19">
         <v>0</v>
       </c>
@@ -4196,17 +4261,17 @@
         <v>0</v>
       </c>
       <c r="AE19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF19">
+        <v>2</v>
+      </c>
+      <c r="AG19">
         <v>10000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>7.2</v>
       </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
       <c r="AI19">
         <v>0</v>
       </c>
@@ -4214,20 +4279,20 @@
         <v>0</v>
       </c>
       <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
         <v>3</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>1.8</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>6</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>5.6</v>
       </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
       <c r="AP19">
         <v>0</v>
       </c>
@@ -4241,40 +4306,43 @@
         <v>0</v>
       </c>
       <c r="AT19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU19">
+        <v>2</v>
+      </c>
+      <c r="AV19">
         <v>5.4</v>
       </c>
-      <c r="AV19">
-        <v>1</v>
-      </c>
       <c r="AW19">
+        <v>1</v>
+      </c>
+      <c r="AX19">
         <v>2.1</v>
       </c>
-      <c r="AX19">
-        <v>2</v>
-      </c>
       <c r="AY19">
+        <v>2</v>
+      </c>
+      <c r="AZ19">
         <v>5.4</v>
       </c>
-      <c r="AZ19">
-        <v>0</v>
-      </c>
       <c r="BA19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB19">
         <v>2</v>
       </c>
       <c r="BC19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD19">
         <v>0</v>
       </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -4325,32 +4393,32 @@
         <v>25</v>
       </c>
       <c r="T20" t="s">
+        <v>189</v>
+      </c>
+      <c r="U20" t="s">
         <v>184</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>135</v>
       </c>
-      <c r="V20" t="s">
-        <v>25</v>
-      </c>
-      <c r="W20" s="3" t="s">
+      <c r="W20" t="s">
+        <v>25</v>
+      </c>
+      <c r="X20" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="X20" s="2">
+      <c r="Y20" s="2">
         <v>72000</v>
       </c>
-      <c r="Y20">
-        <v>2</v>
-      </c>
       <c r="Z20">
+        <v>2</v>
+      </c>
+      <c r="AA20">
         <v>30000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>5.4</v>
       </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
       <c r="AC20">
         <v>0</v>
       </c>
@@ -4367,76 +4435,79 @@
         <v>0</v>
       </c>
       <c r="AH20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI20">
+        <v>1</v>
+      </c>
+      <c r="AJ20">
         <v>18000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>3.5</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>3</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>3.2</v>
       </c>
-      <c r="AM20">
-        <v>2</v>
-      </c>
       <c r="AN20">
+        <v>2</v>
+      </c>
+      <c r="AO20">
         <v>1.2</v>
       </c>
-      <c r="AO20">
-        <v>2</v>
-      </c>
       <c r="AP20">
+        <v>2</v>
+      </c>
+      <c r="AQ20">
         <v>24000</v>
       </c>
-      <c r="AQ20">
+      <c r="AR20">
         <v>3.8</v>
       </c>
-      <c r="AR20">
-        <v>2</v>
-      </c>
       <c r="AS20">
+        <v>2</v>
+      </c>
+      <c r="AT20">
         <v>4.8</v>
       </c>
-      <c r="AT20">
+      <c r="AU20">
         <v>4</v>
       </c>
-      <c r="AU20">
+      <c r="AV20">
         <v>8.6999999999999993</v>
       </c>
-      <c r="AV20">
-        <v>0</v>
-      </c>
       <c r="AW20">
         <v>0</v>
       </c>
       <c r="AX20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY20">
+        <v>1</v>
+      </c>
+      <c r="AZ20">
         <v>2.7</v>
       </c>
-      <c r="AZ20">
-        <v>0</v>
-      </c>
       <c r="BA20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB20">
+        <v>2</v>
+      </c>
+      <c r="BC20">
         <v>1.2</v>
       </c>
-      <c r="BC20">
-        <v>0</v>
-      </c>
       <c r="BD20">
         <v>0</v>
       </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -4487,32 +4558,32 @@
         <v>25</v>
       </c>
       <c r="T21" t="s">
+        <v>189</v>
+      </c>
+      <c r="U21" t="s">
         <v>185</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>137</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>18</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="X21" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="X21" s="2">
+      <c r="Y21" s="2">
         <v>66000</v>
       </c>
-      <c r="Y21">
-        <v>2</v>
-      </c>
       <c r="Z21">
+        <v>2</v>
+      </c>
+      <c r="AA21">
         <v>30000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>3.6</v>
       </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
       <c r="AC21">
         <v>0</v>
       </c>
@@ -4529,29 +4600,29 @@
         <v>0</v>
       </c>
       <c r="AH21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI21">
+        <v>2</v>
+      </c>
+      <c r="AJ21">
         <v>36000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>7.2</v>
       </c>
-      <c r="AK21">
-        <v>2</v>
-      </c>
       <c r="AL21">
+        <v>2</v>
+      </c>
+      <c r="AM21">
         <v>2.4</v>
       </c>
-      <c r="AM21">
-        <v>2</v>
-      </c>
       <c r="AN21">
+        <v>2</v>
+      </c>
+      <c r="AO21">
         <v>1.6</v>
       </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
       <c r="AP21">
         <v>0</v>
       </c>
@@ -4559,46 +4630,49 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS21">
+        <v>2</v>
+      </c>
+      <c r="AT21">
         <v>4.8</v>
       </c>
-      <c r="AT21">
+      <c r="AU21">
         <v>3</v>
       </c>
-      <c r="AU21">
+      <c r="AV21">
         <v>5.6</v>
       </c>
-      <c r="AV21">
-        <v>2</v>
-      </c>
       <c r="AW21">
+        <v>2</v>
+      </c>
+      <c r="AX21">
         <v>3</v>
       </c>
-      <c r="AX21">
-        <v>1</v>
-      </c>
       <c r="AY21">
+        <v>1</v>
+      </c>
+      <c r="AZ21">
         <v>1.2</v>
       </c>
-      <c r="AZ21">
-        <v>0</v>
-      </c>
       <c r="BA21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB21">
+        <v>2</v>
+      </c>
+      <c r="BC21">
         <v>2.4</v>
       </c>
-      <c r="BC21">
-        <v>0</v>
-      </c>
       <c r="BD21">
         <v>0</v>
       </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -4649,32 +4723,32 @@
         <v>25</v>
       </c>
       <c r="T22" t="s">
+        <v>189</v>
+      </c>
+      <c r="U22" t="s">
         <v>184</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>139</v>
       </c>
-      <c r="V22" t="s">
-        <v>25</v>
-      </c>
-      <c r="W22" s="3" t="s">
+      <c r="W22" t="s">
+        <v>25</v>
+      </c>
+      <c r="X22" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="X22" s="2">
+      <c r="Y22" s="2">
         <v>40000</v>
       </c>
-      <c r="Y22">
-        <v>2</v>
-      </c>
       <c r="Z22">
+        <v>2</v>
+      </c>
+      <c r="AA22">
         <v>30000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>6.4</v>
       </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
       <c r="AC22">
         <v>0</v>
       </c>
@@ -4682,17 +4756,17 @@
         <v>0</v>
       </c>
       <c r="AE22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF22">
+        <v>2</v>
+      </c>
+      <c r="AG22">
         <v>10000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>7.2</v>
       </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
       <c r="AI22">
         <v>0</v>
       </c>
@@ -4700,20 +4774,20 @@
         <v>0</v>
       </c>
       <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
         <v>4</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>3.2</v>
       </c>
-      <c r="AM22">
-        <v>2</v>
-      </c>
       <c r="AN22">
+        <v>2</v>
+      </c>
+      <c r="AO22">
         <v>1.2</v>
       </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
       <c r="AP22">
         <v>0</v>
       </c>
@@ -4721,46 +4795,49 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS22">
+        <v>2</v>
+      </c>
+      <c r="AT22">
         <v>3.6</v>
       </c>
-      <c r="AT22">
-        <v>2</v>
-      </c>
       <c r="AU22">
+        <v>2</v>
+      </c>
+      <c r="AV22">
         <v>3.6</v>
       </c>
-      <c r="AV22">
-        <v>1</v>
-      </c>
       <c r="AW22">
+        <v>1</v>
+      </c>
+      <c r="AX22">
         <v>1.4</v>
       </c>
-      <c r="AX22">
-        <v>1</v>
-      </c>
       <c r="AY22">
+        <v>1</v>
+      </c>
+      <c r="AZ22">
         <v>1.2</v>
       </c>
-      <c r="AZ22">
-        <v>0</v>
-      </c>
       <c r="BA22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB22">
+        <v>2</v>
+      </c>
+      <c r="BC22">
         <v>1.6</v>
       </c>
-      <c r="BC22">
-        <v>0</v>
-      </c>
       <c r="BD22">
         <v>0</v>
       </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -4811,32 +4888,32 @@
         <v>25</v>
       </c>
       <c r="T23" t="s">
+        <v>189</v>
+      </c>
+      <c r="U23" t="s">
         <v>185</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>141</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>18</v>
       </c>
-      <c r="W23" s="3" t="s">
+      <c r="X23" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="X23" s="2">
+      <c r="Y23" s="2">
         <v>90000</v>
       </c>
-      <c r="Y23">
-        <v>2</v>
-      </c>
       <c r="Z23">
+        <v>2</v>
+      </c>
+      <c r="AA23">
         <v>30000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>7.2</v>
       </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
       <c r="AC23">
         <v>0</v>
       </c>
@@ -4853,76 +4930,79 @@
         <v>0</v>
       </c>
       <c r="AH23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI23">
+        <v>2</v>
+      </c>
+      <c r="AJ23">
         <v>36000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>7.2</v>
       </c>
-      <c r="AK23">
-        <v>2</v>
-      </c>
       <c r="AL23">
+        <v>2</v>
+      </c>
+      <c r="AM23">
         <v>2.4</v>
       </c>
-      <c r="AM23">
-        <v>2</v>
-      </c>
       <c r="AN23">
+        <v>2</v>
+      </c>
+      <c r="AO23">
         <v>7.2</v>
       </c>
-      <c r="AO23">
-        <v>2</v>
-      </c>
       <c r="AP23">
+        <v>2</v>
+      </c>
+      <c r="AQ23">
         <v>24000</v>
       </c>
-      <c r="AQ23">
+      <c r="AR23">
         <v>3.6</v>
       </c>
-      <c r="AR23">
-        <v>0</v>
-      </c>
       <c r="AS23">
         <v>0</v>
       </c>
       <c r="AT23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU23">
+        <v>1</v>
+      </c>
+      <c r="AV23">
         <v>1.2</v>
       </c>
-      <c r="AV23">
-        <v>2</v>
-      </c>
       <c r="AW23">
+        <v>2</v>
+      </c>
+      <c r="AX23">
         <v>3.4</v>
       </c>
-      <c r="AX23">
-        <v>1</v>
-      </c>
       <c r="AY23">
+        <v>1</v>
+      </c>
+      <c r="AZ23">
         <v>0.8</v>
       </c>
-      <c r="AZ23">
-        <v>0</v>
-      </c>
       <c r="BA23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB23">
+        <v>2</v>
+      </c>
+      <c r="BC23">
         <v>1.2</v>
       </c>
-      <c r="BC23">
-        <v>0</v>
-      </c>
       <c r="BD23">
         <v>0</v>
       </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -4970,32 +5050,32 @@
         <v>25</v>
       </c>
       <c r="T24" t="s">
+        <v>189</v>
+      </c>
+      <c r="U24" t="s">
         <v>184</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>143</v>
       </c>
-      <c r="V24" t="s">
-        <v>25</v>
-      </c>
-      <c r="W24" s="3" t="s">
+      <c r="W24" t="s">
+        <v>25</v>
+      </c>
+      <c r="X24" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="X24" s="2">
+      <c r="Y24" s="2">
         <v>68000</v>
       </c>
-      <c r="Y24">
-        <v>2</v>
-      </c>
       <c r="Z24">
+        <v>2</v>
+      </c>
+      <c r="AA24">
         <v>30000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>3.6</v>
       </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
       <c r="AC24">
         <v>0</v>
       </c>
@@ -5003,17 +5083,17 @@
         <v>0</v>
       </c>
       <c r="AE24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF24">
+        <v>1</v>
+      </c>
+      <c r="AG24">
         <v>14000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>3.5</v>
       </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
       <c r="AI24">
         <v>0</v>
       </c>
@@ -5021,67 +5101,70 @@
         <v>0</v>
       </c>
       <c r="AK24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL24">
+        <v>2</v>
+      </c>
+      <c r="AM24">
         <v>2.4</v>
       </c>
-      <c r="AM24">
-        <v>1</v>
-      </c>
       <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>1.3</v>
       </c>
-      <c r="AO24">
-        <v>2</v>
-      </c>
       <c r="AP24">
+        <v>2</v>
+      </c>
+      <c r="AQ24">
         <v>24000</v>
-      </c>
-      <c r="AQ24">
-        <v>3</v>
       </c>
       <c r="AR24">
         <v>3</v>
       </c>
       <c r="AS24">
+        <v>3</v>
+      </c>
+      <c r="AT24">
         <v>6</v>
       </c>
-      <c r="AT24">
+      <c r="AU24">
         <v>3</v>
       </c>
-      <c r="AU24">
+      <c r="AV24">
         <v>5.5</v>
       </c>
-      <c r="AV24">
-        <v>1</v>
-      </c>
       <c r="AW24">
+        <v>1</v>
+      </c>
+      <c r="AX24">
         <v>2.1</v>
       </c>
-      <c r="AX24">
-        <v>1</v>
-      </c>
       <c r="AY24">
+        <v>1</v>
+      </c>
+      <c r="AZ24">
         <v>3</v>
       </c>
-      <c r="AZ24">
-        <v>0</v>
-      </c>
       <c r="BA24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB24">
+        <v>2</v>
+      </c>
+      <c r="BC24">
         <v>1.2</v>
       </c>
-      <c r="BC24">
-        <v>0</v>
-      </c>
       <c r="BD24">
         <v>0</v>
       </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -5132,32 +5215,32 @@
         <v>25</v>
       </c>
       <c r="T25" t="s">
+        <v>189</v>
+      </c>
+      <c r="U25" t="s">
         <v>185</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>145</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>18</v>
       </c>
-      <c r="W25" s="5" t="s">
+      <c r="X25" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="X25" s="2">
+      <c r="Y25" s="2">
         <v>66000</v>
       </c>
-      <c r="Y25">
-        <v>2</v>
-      </c>
       <c r="Z25">
+        <v>2</v>
+      </c>
+      <c r="AA25">
         <v>30000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>6.6</v>
       </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
       <c r="AC25">
         <v>0</v>
       </c>
@@ -5174,29 +5257,29 @@
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI25">
+        <v>2</v>
+      </c>
+      <c r="AJ25">
         <v>36000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>7.2</v>
       </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
       <c r="AL25">
         <v>0</v>
       </c>
       <c r="AM25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN25">
+        <v>2</v>
+      </c>
+      <c r="AO25">
         <v>5.6</v>
       </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
       <c r="AP25">
         <v>0</v>
       </c>
@@ -5210,40 +5293,43 @@
         <v>0</v>
       </c>
       <c r="AT25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU25">
+        <v>2</v>
+      </c>
+      <c r="AV25">
         <v>6</v>
       </c>
-      <c r="AV25">
-        <v>0</v>
-      </c>
       <c r="AW25">
         <v>0</v>
       </c>
       <c r="AX25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY25">
+        <v>2</v>
+      </c>
+      <c r="AZ25">
         <v>6</v>
       </c>
-      <c r="AZ25">
-        <v>0</v>
-      </c>
       <c r="BA25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB25">
+        <v>2</v>
+      </c>
+      <c r="BC25">
         <v>1.6</v>
       </c>
-      <c r="BC25">
-        <v>0</v>
-      </c>
       <c r="BD25">
         <v>0</v>
       </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -5294,50 +5380,50 @@
         <v>25</v>
       </c>
       <c r="T26" t="s">
+        <v>188</v>
+      </c>
+      <c r="U26" t="s">
         <v>182</v>
       </c>
-      <c r="U26" t="s">
+      <c r="V26" t="s">
         <v>147</v>
       </c>
-      <c r="V26" t="s">
-        <v>25</v>
-      </c>
-      <c r="W26" s="5" t="s">
+      <c r="W26" t="s">
+        <v>25</v>
+      </c>
+      <c r="X26" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="X26" s="2">
+      <c r="Y26" s="2">
         <v>58000</v>
       </c>
-      <c r="Y26">
-        <v>2</v>
-      </c>
       <c r="Z26">
+        <v>2</v>
+      </c>
+      <c r="AA26">
         <v>30000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>4</v>
       </c>
-      <c r="AB26">
-        <v>2</v>
-      </c>
       <c r="AC26">
+        <v>2</v>
+      </c>
+      <c r="AD26">
         <v>3000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>6</v>
       </c>
-      <c r="AE26">
-        <v>2</v>
-      </c>
       <c r="AF26">
+        <v>2</v>
+      </c>
+      <c r="AG26">
         <v>10000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>7.2</v>
       </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
       <c r="AI26">
         <v>0</v>
       </c>
@@ -5366,46 +5452,49 @@
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS26">
+        <v>2</v>
+      </c>
+      <c r="AT26">
         <v>3.6</v>
       </c>
-      <c r="AT26">
-        <v>2</v>
-      </c>
       <c r="AU26">
+        <v>2</v>
+      </c>
+      <c r="AV26">
         <v>3.6</v>
       </c>
-      <c r="AV26">
-        <v>0</v>
-      </c>
       <c r="AW26">
         <v>0</v>
       </c>
       <c r="AX26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY26">
+        <v>2</v>
+      </c>
+      <c r="AZ26">
         <v>2.4</v>
       </c>
-      <c r="AZ26">
-        <v>0</v>
-      </c>
       <c r="BA26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB26">
+        <v>2</v>
+      </c>
+      <c r="BC26">
         <v>1.4</v>
       </c>
-      <c r="BC26">
-        <v>0</v>
-      </c>
       <c r="BD26">
         <v>0</v>
       </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -5456,50 +5545,50 @@
         <v>25</v>
       </c>
       <c r="T27" t="s">
+        <v>188</v>
+      </c>
+      <c r="U27" t="s">
         <v>183</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>149</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>18</v>
       </c>
-      <c r="W27" s="5" t="s">
+      <c r="X27" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="X27" s="2">
+      <c r="Y27" s="2">
         <v>62000</v>
       </c>
-      <c r="Y27">
-        <v>2</v>
-      </c>
       <c r="Z27">
+        <v>2</v>
+      </c>
+      <c r="AA27">
         <v>30000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>3.6</v>
       </c>
-      <c r="AB27">
-        <v>2</v>
-      </c>
       <c r="AC27">
+        <v>2</v>
+      </c>
+      <c r="AD27">
         <v>3000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>6</v>
       </c>
-      <c r="AE27">
-        <v>1</v>
-      </c>
       <c r="AF27">
+        <v>1</v>
+      </c>
+      <c r="AG27">
         <v>5000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>3.6</v>
       </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
       <c r="AI27">
         <v>0</v>
       </c>
@@ -5507,67 +5596,70 @@
         <v>0</v>
       </c>
       <c r="AK27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL27">
+        <v>2</v>
+      </c>
+      <c r="AM27">
         <v>2.4</v>
       </c>
-      <c r="AM27">
-        <v>1</v>
-      </c>
       <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>0.6</v>
       </c>
-      <c r="AO27">
-        <v>2</v>
-      </c>
       <c r="AP27">
+        <v>2</v>
+      </c>
+      <c r="AQ27">
         <v>24000</v>
       </c>
-      <c r="AQ27">
+      <c r="AR27">
         <v>3</v>
       </c>
-      <c r="AR27">
-        <v>0</v>
-      </c>
       <c r="AS27">
         <v>0</v>
       </c>
       <c r="AT27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU27">
+        <v>1</v>
+      </c>
+      <c r="AV27">
         <v>2.7</v>
       </c>
-      <c r="AV27">
-        <v>0</v>
-      </c>
       <c r="AW27">
         <v>0</v>
       </c>
       <c r="AX27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY27">
+        <v>1</v>
+      </c>
+      <c r="AZ27">
         <v>2.7</v>
       </c>
-      <c r="AZ27">
-        <v>2</v>
-      </c>
       <c r="BA27">
         <v>2</v>
       </c>
       <c r="BB27">
+        <v>2</v>
+      </c>
+      <c r="BC27">
         <v>1.2</v>
       </c>
-      <c r="BC27">
-        <v>1</v>
-      </c>
       <c r="BD27">
+        <v>1</v>
+      </c>
+      <c r="BE27">
         <v>2.1</v>
       </c>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -5618,41 +5710,41 @@
         <v>25</v>
       </c>
       <c r="T28" t="s">
+        <v>188</v>
+      </c>
+      <c r="U28" t="s">
         <v>182</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>151</v>
       </c>
-      <c r="V28" t="s">
-        <v>25</v>
-      </c>
-      <c r="W28" s="5" t="s">
+      <c r="W28" t="s">
+        <v>25</v>
+      </c>
+      <c r="X28" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="X28" s="2">
+      <c r="Y28" s="2">
         <v>75000</v>
       </c>
-      <c r="Y28">
-        <v>2</v>
-      </c>
       <c r="Z28">
+        <v>2</v>
+      </c>
+      <c r="AA28">
         <v>30000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>3.6</v>
       </c>
-      <c r="AB28">
-        <v>2</v>
-      </c>
       <c r="AC28">
+        <v>2</v>
+      </c>
+      <c r="AD28">
         <v>3000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>6</v>
       </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
       <c r="AF28">
         <v>0</v>
       </c>
@@ -5660,76 +5752,79 @@
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI28">
+        <v>1</v>
+      </c>
+      <c r="AJ28">
         <v>18000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>3.6</v>
       </c>
-      <c r="AK28">
-        <v>2</v>
-      </c>
       <c r="AL28">
+        <v>2</v>
+      </c>
+      <c r="AM28">
         <v>1.8</v>
       </c>
-      <c r="AM28">
-        <v>2</v>
-      </c>
       <c r="AN28">
+        <v>2</v>
+      </c>
+      <c r="AO28">
         <v>1.2</v>
       </c>
-      <c r="AO28">
-        <v>2</v>
-      </c>
       <c r="AP28">
+        <v>2</v>
+      </c>
+      <c r="AQ28">
         <v>24000</v>
       </c>
-      <c r="AQ28">
+      <c r="AR28">
         <v>3.6</v>
       </c>
-      <c r="AR28">
-        <v>0</v>
-      </c>
       <c r="AS28">
         <v>0</v>
       </c>
       <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
         <v>3</v>
       </c>
-      <c r="AU28">
+      <c r="AV28">
         <v>4.8</v>
       </c>
-      <c r="AV28">
-        <v>0</v>
-      </c>
       <c r="AW28">
         <v>0</v>
       </c>
       <c r="AX28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY28">
+        <v>2</v>
+      </c>
+      <c r="AZ28">
         <v>3.9</v>
       </c>
-      <c r="AZ28">
-        <v>0</v>
-      </c>
       <c r="BA28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB28">
+        <v>2</v>
+      </c>
+      <c r="BC28">
         <v>1.2</v>
       </c>
-      <c r="BC28">
-        <v>0</v>
-      </c>
       <c r="BD28">
         <v>0</v>
       </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -5780,32 +5875,32 @@
         <v>25</v>
       </c>
       <c r="T29" t="s">
+        <v>189</v>
+      </c>
+      <c r="U29" t="s">
         <v>184</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>153</v>
       </c>
-      <c r="V29" t="s">
-        <v>25</v>
-      </c>
-      <c r="W29" s="5" t="s">
+      <c r="W29" t="s">
+        <v>25</v>
+      </c>
+      <c r="X29" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="X29" s="2">
+      <c r="Y29" s="2">
         <v>66000</v>
       </c>
-      <c r="Y29">
-        <v>2</v>
-      </c>
       <c r="Z29">
+        <v>2</v>
+      </c>
+      <c r="AA29">
         <v>30000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>6.6</v>
       </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
       <c r="AC29">
         <v>0</v>
       </c>
@@ -5822,23 +5917,23 @@
         <v>0</v>
       </c>
       <c r="AH29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI29">
+        <v>2</v>
+      </c>
+      <c r="AJ29">
         <v>36000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>7.2</v>
       </c>
-      <c r="AK29">
-        <v>2</v>
-      </c>
       <c r="AL29">
+        <v>2</v>
+      </c>
+      <c r="AM29">
         <v>2.4</v>
       </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
       <c r="AN29">
         <v>0</v>
       </c>
@@ -5852,20 +5947,20 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS29">
+        <v>2</v>
+      </c>
+      <c r="AT29">
         <v>4.8</v>
       </c>
-      <c r="AT29">
-        <v>2</v>
-      </c>
       <c r="AU29">
+        <v>2</v>
+      </c>
+      <c r="AV29">
         <v>3</v>
       </c>
-      <c r="AV29">
-        <v>0</v>
-      </c>
       <c r="AW29">
         <v>0</v>
       </c>
@@ -5879,19 +5974,22 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB29">
+        <v>2</v>
+      </c>
+      <c r="BC29">
         <v>3</v>
       </c>
-      <c r="BC29">
-        <v>0</v>
-      </c>
       <c r="BD29">
         <v>0</v>
       </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -5942,32 +6040,32 @@
         <v>18</v>
       </c>
       <c r="T30" t="s">
+        <v>189</v>
+      </c>
+      <c r="U30" t="s">
         <v>185</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>155</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>18</v>
       </c>
-      <c r="W30" s="5" t="s">
+      <c r="X30" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="X30" s="2">
+      <c r="Y30" s="2">
         <v>90000</v>
       </c>
-      <c r="Y30">
-        <v>2</v>
-      </c>
       <c r="Z30">
+        <v>2</v>
+      </c>
+      <c r="AA30">
         <v>30000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>3.8</v>
       </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
       <c r="AC30">
         <v>0</v>
       </c>
@@ -5984,76 +6082,79 @@
         <v>0</v>
       </c>
       <c r="AH30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI30">
+        <v>2</v>
+      </c>
+      <c r="AJ30">
         <v>36000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>7.1</v>
       </c>
-      <c r="AK30">
-        <v>2</v>
-      </c>
       <c r="AL30">
+        <v>2</v>
+      </c>
+      <c r="AM30">
         <v>2.4</v>
       </c>
-      <c r="AM30">
-        <v>2</v>
-      </c>
       <c r="AN30">
+        <v>2</v>
+      </c>
+      <c r="AO30">
         <v>3.1</v>
       </c>
-      <c r="AO30">
-        <v>2</v>
-      </c>
       <c r="AP30">
+        <v>2</v>
+      </c>
+      <c r="AQ30">
         <v>24000</v>
       </c>
-      <c r="AQ30">
+      <c r="AR30">
         <v>3</v>
       </c>
-      <c r="AR30">
-        <v>1</v>
-      </c>
       <c r="AS30">
+        <v>1</v>
+      </c>
+      <c r="AT30">
         <v>1.3</v>
       </c>
-      <c r="AT30">
-        <v>2</v>
-      </c>
       <c r="AU30">
+        <v>2</v>
+      </c>
+      <c r="AV30">
         <v>4</v>
       </c>
-      <c r="AV30">
-        <v>0</v>
-      </c>
       <c r="AW30">
         <v>0</v>
       </c>
       <c r="AX30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY30">
+        <v>1</v>
+      </c>
+      <c r="AZ30">
         <v>2.7</v>
       </c>
-      <c r="AZ30">
-        <v>2</v>
-      </c>
       <c r="BA30">
         <v>2</v>
       </c>
       <c r="BB30">
+        <v>2</v>
+      </c>
+      <c r="BC30">
         <v>1.2</v>
       </c>
-      <c r="BC30">
-        <v>0</v>
-      </c>
       <c r="BD30">
         <v>0</v>
       </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -6104,32 +6205,32 @@
         <v>25</v>
       </c>
       <c r="T31" t="s">
+        <v>188</v>
+      </c>
+      <c r="U31" t="s">
         <v>183</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>157</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>18</v>
       </c>
-      <c r="W31" s="5" t="s">
+      <c r="X31" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="X31" s="2">
+      <c r="Y31" s="2">
         <v>72000</v>
       </c>
-      <c r="Y31">
-        <v>2</v>
-      </c>
       <c r="Z31">
+        <v>2</v>
+      </c>
+      <c r="AA31">
         <v>30000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>6</v>
       </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
       <c r="AC31">
         <v>0</v>
       </c>
@@ -6146,76 +6247,79 @@
         <v>0</v>
       </c>
       <c r="AH31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI31">
+        <v>1</v>
+      </c>
+      <c r="AJ31">
         <v>18000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>3</v>
       </c>
-      <c r="AK31">
-        <v>1</v>
-      </c>
       <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>1.2</v>
       </c>
-      <c r="AM31">
-        <v>2</v>
-      </c>
       <c r="AN31">
+        <v>2</v>
+      </c>
+      <c r="AO31">
         <v>1.2</v>
       </c>
-      <c r="AO31">
-        <v>2</v>
-      </c>
       <c r="AP31">
+        <v>2</v>
+      </c>
+      <c r="AQ31">
         <v>24000</v>
       </c>
-      <c r="AQ31">
+      <c r="AR31">
         <v>3</v>
       </c>
-      <c r="AR31">
-        <v>2</v>
-      </c>
       <c r="AS31">
+        <v>2</v>
+      </c>
+      <c r="AT31">
         <v>4</v>
       </c>
-      <c r="AT31">
+      <c r="AU31">
         <v>3</v>
       </c>
-      <c r="AU31">
+      <c r="AV31">
         <v>6.6</v>
       </c>
-      <c r="AV31">
-        <v>1</v>
-      </c>
       <c r="AW31">
+        <v>1</v>
+      </c>
+      <c r="AX31">
         <v>1.8</v>
       </c>
-      <c r="AX31">
-        <v>1</v>
-      </c>
       <c r="AY31">
+        <v>1</v>
+      </c>
+      <c r="AZ31">
         <v>3</v>
       </c>
-      <c r="AZ31">
-        <v>1</v>
-      </c>
       <c r="BA31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB31">
+        <v>2</v>
+      </c>
+      <c r="BC31">
         <v>1.6</v>
       </c>
-      <c r="BC31">
-        <v>0</v>
-      </c>
       <c r="BD31">
         <v>0</v>
       </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -6266,41 +6370,41 @@
         <v>25</v>
       </c>
       <c r="T32" t="s">
+        <v>188</v>
+      </c>
+      <c r="U32" t="s">
         <v>182</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>158</v>
       </c>
-      <c r="V32" t="s">
-        <v>25</v>
-      </c>
-      <c r="W32" s="5" t="s">
+      <c r="W32" t="s">
+        <v>25</v>
+      </c>
+      <c r="X32" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="X32" s="2">
+      <c r="Y32" s="2">
         <v>57000</v>
       </c>
-      <c r="Y32">
-        <v>2</v>
-      </c>
       <c r="Z32">
+        <v>2</v>
+      </c>
+      <c r="AA32">
         <v>30000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>4</v>
       </c>
-      <c r="AB32">
-        <v>2</v>
-      </c>
       <c r="AC32">
+        <v>2</v>
+      </c>
+      <c r="AD32">
         <v>3000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>7</v>
       </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
       <c r="AF32">
         <v>0</v>
       </c>
@@ -6317,47 +6421,47 @@
         <v>0</v>
       </c>
       <c r="AK32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL32">
+        <v>2</v>
+      </c>
+      <c r="AM32">
         <v>2.4</v>
       </c>
-      <c r="AM32">
-        <v>0</v>
-      </c>
       <c r="AN32">
         <v>0</v>
       </c>
       <c r="AO32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP32">
+        <v>2</v>
+      </c>
+      <c r="AQ32">
         <v>24000</v>
       </c>
-      <c r="AQ32">
+      <c r="AR32">
         <v>3.6</v>
       </c>
-      <c r="AR32">
-        <v>2</v>
-      </c>
       <c r="AS32">
+        <v>2</v>
+      </c>
+      <c r="AT32">
         <v>5.4</v>
       </c>
-      <c r="AT32">
-        <v>2</v>
-      </c>
       <c r="AU32">
+        <v>2</v>
+      </c>
+      <c r="AV32">
         <v>5.4</v>
       </c>
-      <c r="AV32">
-        <v>1</v>
-      </c>
       <c r="AW32">
+        <v>1</v>
+      </c>
+      <c r="AX32">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AX32">
-        <v>0</v>
-      </c>
       <c r="AY32">
         <v>0</v>
       </c>
@@ -6365,19 +6469,22 @@
         <v>0</v>
       </c>
       <c r="BA32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB32">
+        <v>2</v>
+      </c>
+      <c r="BC32">
         <v>2.4</v>
       </c>
-      <c r="BC32">
-        <v>0</v>
-      </c>
       <c r="BD32">
         <v>0</v>
       </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -6428,50 +6535,50 @@
         <v>25</v>
       </c>
       <c r="T33" t="s">
+        <v>188</v>
+      </c>
+      <c r="U33" t="s">
         <v>183</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>159</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>18</v>
       </c>
-      <c r="W33" s="5" t="s">
+      <c r="X33" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="X33" s="2">
+      <c r="Y33" s="2">
         <v>60500</v>
       </c>
-      <c r="Y33">
-        <v>2</v>
-      </c>
       <c r="Z33">
+        <v>2</v>
+      </c>
+      <c r="AA33">
         <v>30000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>5.4</v>
       </c>
-      <c r="AB33">
-        <v>1</v>
-      </c>
       <c r="AC33">
+        <v>1</v>
+      </c>
+      <c r="AD33">
         <v>1500</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>3</v>
       </c>
-      <c r="AE33">
-        <v>1</v>
-      </c>
       <c r="AF33">
+        <v>1</v>
+      </c>
+      <c r="AG33">
         <v>5000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>3.6</v>
       </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
       <c r="AI33">
         <v>0</v>
       </c>
@@ -6479,67 +6586,70 @@
         <v>0</v>
       </c>
       <c r="AK33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL33">
+        <v>2</v>
+      </c>
+      <c r="AM33">
         <v>2.4</v>
       </c>
-      <c r="AM33">
-        <v>0</v>
-      </c>
       <c r="AN33">
         <v>0</v>
       </c>
       <c r="AO33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP33">
+        <v>2</v>
+      </c>
+      <c r="AQ33">
         <v>24000</v>
       </c>
-      <c r="AQ33">
+      <c r="AR33">
         <v>3</v>
       </c>
-      <c r="AR33">
-        <v>1</v>
-      </c>
       <c r="AS33">
+        <v>1</v>
+      </c>
+      <c r="AT33">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AT33">
+      <c r="AU33">
         <v>3</v>
       </c>
-      <c r="AU33">
+      <c r="AV33">
         <v>6.2</v>
       </c>
-      <c r="AV33">
-        <v>0</v>
-      </c>
       <c r="AW33">
         <v>0</v>
       </c>
       <c r="AX33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY33">
+        <v>1</v>
+      </c>
+      <c r="AZ33">
         <v>2.7</v>
       </c>
-      <c r="AZ33">
-        <v>1</v>
-      </c>
       <c r="BA33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB33">
+        <v>2</v>
+      </c>
+      <c r="BC33">
         <v>1.6</v>
       </c>
-      <c r="BC33">
-        <v>0</v>
-      </c>
       <c r="BD33">
         <v>0</v>
       </c>
+      <c r="BE33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -6590,41 +6700,41 @@
         <v>25</v>
       </c>
       <c r="T34" t="s">
+        <v>188</v>
+      </c>
+      <c r="U34" t="s">
         <v>182</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>167</v>
       </c>
-      <c r="V34" t="s">
-        <v>25</v>
-      </c>
-      <c r="W34" s="5" t="s">
+      <c r="W34" t="s">
+        <v>25</v>
+      </c>
+      <c r="X34" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="X34" s="2">
+      <c r="Y34" s="2">
         <v>63000</v>
       </c>
-      <c r="Y34">
-        <v>2</v>
-      </c>
       <c r="Z34">
+        <v>2</v>
+      </c>
+      <c r="AA34">
         <v>30000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>3.6</v>
       </c>
-      <c r="AB34">
-        <v>2</v>
-      </c>
       <c r="AC34">
+        <v>2</v>
+      </c>
+      <c r="AD34">
         <v>3000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>6</v>
       </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
       <c r="AF34">
         <v>0</v>
       </c>
@@ -6632,76 +6742,79 @@
         <v>0</v>
       </c>
       <c r="AH34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI34">
+        <v>1</v>
+      </c>
+      <c r="AJ34">
         <v>18000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>3.2</v>
       </c>
-      <c r="AK34">
-        <v>0</v>
-      </c>
       <c r="AL34">
         <v>0</v>
       </c>
       <c r="AM34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>2.4</v>
       </c>
-      <c r="AO34">
-        <v>1</v>
-      </c>
       <c r="AP34">
+        <v>1</v>
+      </c>
+      <c r="AQ34">
         <v>12000</v>
       </c>
-      <c r="AQ34">
+      <c r="AR34">
         <v>1.8</v>
       </c>
-      <c r="AR34">
-        <v>2</v>
-      </c>
       <c r="AS34">
+        <v>2</v>
+      </c>
+      <c r="AT34">
         <v>5.3</v>
       </c>
-      <c r="AT34">
+      <c r="AU34">
         <v>3</v>
       </c>
-      <c r="AU34">
+      <c r="AV34">
         <v>7.4</v>
       </c>
-      <c r="AV34">
-        <v>0</v>
-      </c>
       <c r="AW34">
         <v>0</v>
       </c>
       <c r="AX34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY34">
+        <v>1</v>
+      </c>
+      <c r="AZ34">
         <v>2.7</v>
       </c>
-      <c r="AZ34">
-        <v>1</v>
-      </c>
       <c r="BA34">
         <v>1</v>
       </c>
       <c r="BB34">
+        <v>1</v>
+      </c>
+      <c r="BC34">
         <v>0.6</v>
       </c>
-      <c r="BC34">
-        <v>0</v>
-      </c>
       <c r="BD34">
         <v>0</v>
       </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -6752,50 +6865,50 @@
         <v>25</v>
       </c>
       <c r="T35" t="s">
+        <v>188</v>
+      </c>
+      <c r="U35" t="s">
         <v>183</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>168</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>18</v>
       </c>
-      <c r="W35" s="5" t="s">
+      <c r="X35" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="X35" s="2">
+      <c r="Y35" s="2">
         <v>71500</v>
       </c>
-      <c r="Y35">
-        <v>2</v>
-      </c>
       <c r="Z35">
+        <v>2</v>
+      </c>
+      <c r="AA35">
         <v>30000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>3.6</v>
       </c>
-      <c r="AB35">
-        <v>1</v>
-      </c>
       <c r="AC35">
+        <v>1</v>
+      </c>
+      <c r="AD35">
         <v>1500</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>3</v>
       </c>
-      <c r="AE35">
-        <v>2</v>
-      </c>
       <c r="AF35">
+        <v>2</v>
+      </c>
+      <c r="AG35">
         <v>28000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>7</v>
       </c>
-      <c r="AH35">
-        <v>0</v>
-      </c>
       <c r="AI35">
         <v>0</v>
       </c>
@@ -6803,103 +6916,106 @@
         <v>0</v>
       </c>
       <c r="AK35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL35">
+        <v>2</v>
+      </c>
+      <c r="AM35">
         <v>1.2</v>
       </c>
-      <c r="AM35">
-        <v>0</v>
-      </c>
       <c r="AN35">
         <v>0</v>
       </c>
       <c r="AO35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP35">
+        <v>1</v>
+      </c>
+      <c r="AQ35">
         <v>12000</v>
       </c>
-      <c r="AQ35">
+      <c r="AR35">
         <v>1.8</v>
       </c>
-      <c r="AR35">
-        <v>1</v>
-      </c>
       <c r="AS35">
+        <v>1</v>
+      </c>
+      <c r="AT35">
         <v>2.9</v>
       </c>
-      <c r="AT35">
-        <v>1</v>
-      </c>
       <c r="AU35">
+        <v>1</v>
+      </c>
+      <c r="AV35">
         <v>4</v>
       </c>
-      <c r="AV35">
-        <v>0</v>
-      </c>
       <c r="AW35">
         <v>0</v>
       </c>
       <c r="AX35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY35">
+        <v>1</v>
+      </c>
+      <c r="AZ35">
         <v>4</v>
       </c>
-      <c r="AZ35">
-        <v>1</v>
-      </c>
       <c r="BA35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB35">
         <v>2</v>
       </c>
       <c r="BC35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD35">
+        <v>0</v>
+      </c>
+      <c r="BE35">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="W4" r:id="rId1" xr:uid="{0DE49DAD-0CA7-EE4E-943F-934AA872739F}"/>
-    <hyperlink ref="W2" r:id="rId2" xr:uid="{99F01E1F-0A1D-E249-AE2F-D4F04B354B83}"/>
-    <hyperlink ref="W3" r:id="rId3" xr:uid="{800D2B2B-516D-BB4D-BCFC-6FCF2EBB7B13}"/>
-    <hyperlink ref="W5" r:id="rId4" xr:uid="{04F58694-9538-4145-BAFD-1003A3DBB46E}"/>
-    <hyperlink ref="W6" r:id="rId5" xr:uid="{BA204215-65D6-254D-8742-83361E49D647}"/>
-    <hyperlink ref="W7" r:id="rId6" xr:uid="{8653A215-04E7-F643-BE28-444CE89958D1}"/>
-    <hyperlink ref="W8" r:id="rId7" xr:uid="{C3CFA449-23F1-1140-A57C-B0D41E3DC813}"/>
-    <hyperlink ref="W9" r:id="rId8" xr:uid="{66A7E5F9-5A80-BF43-BE98-B0C548A9C97C}"/>
-    <hyperlink ref="W10" r:id="rId9" xr:uid="{D73AAA7A-435E-CC43-A966-A5657C470A0B}"/>
-    <hyperlink ref="W11" r:id="rId10" xr:uid="{FA0DF985-F4E2-9943-872F-357952FFDB94}"/>
-    <hyperlink ref="W12" r:id="rId11" xr:uid="{BC10281D-1565-E946-AAE3-7E19FB6F2B30}"/>
-    <hyperlink ref="W13" r:id="rId12" xr:uid="{B532E596-3DEB-364A-8EA9-C47488812C5B}"/>
-    <hyperlink ref="W14" r:id="rId13" xr:uid="{2C00AC5A-ECE4-414D-92BD-E355F3D5D9E1}"/>
-    <hyperlink ref="W15" r:id="rId14" xr:uid="{D5396DB1-9527-5549-A2D3-51B9A8C3B5EE}"/>
-    <hyperlink ref="W16" r:id="rId15" xr:uid="{2F0F32A5-A1F4-5F47-88ED-7CAD64CFBFEB}"/>
-    <hyperlink ref="W18" r:id="rId16" xr:uid="{71D0DD3A-9CE4-8A4C-ACB2-3F6FA57ABB1F}"/>
-    <hyperlink ref="W23" r:id="rId17" xr:uid="{51D1DDD0-9C49-E044-A280-D530FA7667E0}"/>
-    <hyperlink ref="W24" r:id="rId18" xr:uid="{394348D3-D441-F741-9BB3-587B646D34DF}"/>
-    <hyperlink ref="W25" r:id="rId19" xr:uid="{DF5F2254-685E-234E-A3E8-5E1C33CF86AB}"/>
-    <hyperlink ref="W22" r:id="rId20" xr:uid="{3CF03DD2-0A2E-3148-8D27-13FD6161864D}"/>
-    <hyperlink ref="W21" r:id="rId21" xr:uid="{0513032A-2ED7-9D47-A224-0CDEC425D528}"/>
-    <hyperlink ref="W19" r:id="rId22" xr:uid="{68D171DA-1070-1C49-861E-7E98943F2095}"/>
-    <hyperlink ref="W20" r:id="rId23" xr:uid="{D3533531-4400-A944-ABDD-7369DAEB94E2}"/>
-    <hyperlink ref="W17" r:id="rId24" xr:uid="{5362DC24-49E8-3448-BA92-7958B1DB443E}"/>
-    <hyperlink ref="W26" r:id="rId25" xr:uid="{6BEC3FE0-0FF4-9D43-94CB-9E067B3958E4}"/>
-    <hyperlink ref="W28" r:id="rId26" xr:uid="{643FBCD4-ED01-4748-BBD0-608379C660F6}"/>
-    <hyperlink ref="W29" r:id="rId27" xr:uid="{FEAE90EA-A5E0-8F4F-9029-20AE8A2FC922}"/>
-    <hyperlink ref="W31" r:id="rId28" xr:uid="{62F2D914-8FE6-D24D-BCF6-BB3211E52581}"/>
-    <hyperlink ref="W30" r:id="rId29" xr:uid="{6944DDCC-BACF-CF45-9797-70C55F013DE8}"/>
-    <hyperlink ref="W27" r:id="rId30" xr:uid="{A1028919-E035-3342-92F2-34F52E533EE3}"/>
-    <hyperlink ref="W32" r:id="rId31" xr:uid="{8F5B192C-27B5-FF41-9F85-7E515AECA15E}"/>
-    <hyperlink ref="W33" r:id="rId32" xr:uid="{F24CA328-4D47-7B4D-8EEF-2B58FC098169}"/>
-    <hyperlink ref="W34" r:id="rId33" xr:uid="{BF8B51BD-FBB9-694F-A3A1-4FF74F9F7A4E}"/>
-    <hyperlink ref="W35" r:id="rId34" xr:uid="{20055D7E-9EC4-4A4C-9CDD-4AFC9FF934F9}"/>
+    <hyperlink ref="X4" r:id="rId1" xr:uid="{0DE49DAD-0CA7-EE4E-943F-934AA872739F}"/>
+    <hyperlink ref="X2" r:id="rId2" xr:uid="{99F01E1F-0A1D-E249-AE2F-D4F04B354B83}"/>
+    <hyperlink ref="X3" r:id="rId3" xr:uid="{800D2B2B-516D-BB4D-BCFC-6FCF2EBB7B13}"/>
+    <hyperlink ref="X5" r:id="rId4" xr:uid="{04F58694-9538-4145-BAFD-1003A3DBB46E}"/>
+    <hyperlink ref="X6" r:id="rId5" xr:uid="{BA204215-65D6-254D-8742-83361E49D647}"/>
+    <hyperlink ref="X7" r:id="rId6" xr:uid="{8653A215-04E7-F643-BE28-444CE89958D1}"/>
+    <hyperlink ref="X8" r:id="rId7" xr:uid="{C3CFA449-23F1-1140-A57C-B0D41E3DC813}"/>
+    <hyperlink ref="X9" r:id="rId8" xr:uid="{66A7E5F9-5A80-BF43-BE98-B0C548A9C97C}"/>
+    <hyperlink ref="X10" r:id="rId9" xr:uid="{D73AAA7A-435E-CC43-A966-A5657C470A0B}"/>
+    <hyperlink ref="X11" r:id="rId10" xr:uid="{FA0DF985-F4E2-9943-872F-357952FFDB94}"/>
+    <hyperlink ref="X12" r:id="rId11" xr:uid="{BC10281D-1565-E946-AAE3-7E19FB6F2B30}"/>
+    <hyperlink ref="X13" r:id="rId12" xr:uid="{B532E596-3DEB-364A-8EA9-C47488812C5B}"/>
+    <hyperlink ref="X14" r:id="rId13" xr:uid="{2C00AC5A-ECE4-414D-92BD-E355F3D5D9E1}"/>
+    <hyperlink ref="X15" r:id="rId14" xr:uid="{D5396DB1-9527-5549-A2D3-51B9A8C3B5EE}"/>
+    <hyperlink ref="X16" r:id="rId15" xr:uid="{2F0F32A5-A1F4-5F47-88ED-7CAD64CFBFEB}"/>
+    <hyperlink ref="X18" r:id="rId16" xr:uid="{71D0DD3A-9CE4-8A4C-ACB2-3F6FA57ABB1F}"/>
+    <hyperlink ref="X23" r:id="rId17" xr:uid="{51D1DDD0-9C49-E044-A280-D530FA7667E0}"/>
+    <hyperlink ref="X24" r:id="rId18" xr:uid="{394348D3-D441-F741-9BB3-587B646D34DF}"/>
+    <hyperlink ref="X25" r:id="rId19" xr:uid="{DF5F2254-685E-234E-A3E8-5E1C33CF86AB}"/>
+    <hyperlink ref="X22" r:id="rId20" xr:uid="{3CF03DD2-0A2E-3148-8D27-13FD6161864D}"/>
+    <hyperlink ref="X21" r:id="rId21" xr:uid="{0513032A-2ED7-9D47-A224-0CDEC425D528}"/>
+    <hyperlink ref="X19" r:id="rId22" xr:uid="{68D171DA-1070-1C49-861E-7E98943F2095}"/>
+    <hyperlink ref="X20" r:id="rId23" xr:uid="{D3533531-4400-A944-ABDD-7369DAEB94E2}"/>
+    <hyperlink ref="X17" r:id="rId24" xr:uid="{5362DC24-49E8-3448-BA92-7958B1DB443E}"/>
+    <hyperlink ref="X26" r:id="rId25" xr:uid="{6BEC3FE0-0FF4-9D43-94CB-9E067B3958E4}"/>
+    <hyperlink ref="X28" r:id="rId26" xr:uid="{643FBCD4-ED01-4748-BBD0-608379C660F6}"/>
+    <hyperlink ref="X29" r:id="rId27" xr:uid="{FEAE90EA-A5E0-8F4F-9029-20AE8A2FC922}"/>
+    <hyperlink ref="X31" r:id="rId28" xr:uid="{62F2D914-8FE6-D24D-BCF6-BB3211E52581}"/>
+    <hyperlink ref="X30" r:id="rId29" xr:uid="{6944DDCC-BACF-CF45-9797-70C55F013DE8}"/>
+    <hyperlink ref="X27" r:id="rId30" xr:uid="{A1028919-E035-3342-92F2-34F52E533EE3}"/>
+    <hyperlink ref="X32" r:id="rId31" xr:uid="{8F5B192C-27B5-FF41-9F85-7E515AECA15E}"/>
+    <hyperlink ref="X33" r:id="rId32" xr:uid="{F24CA328-4D47-7B4D-8EEF-2B58FC098169}"/>
+    <hyperlink ref="X34" r:id="rId33" xr:uid="{BF8B51BD-FBB9-694F-A3A1-4FF74F9F7A4E}"/>
+    <hyperlink ref="X35" r:id="rId34" xr:uid="{20055D7E-9EC4-4A4C-9CDD-4AFC9FF934F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>

--- a/2c Data.xlsx
+++ b/2c Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomfox/Documents/Uni/2.3/2c-Data-Science/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E91AC49-EB96-A841-97B8-1B5EC11D743D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D867F5-61CC-8649-A299-F7A8A224F20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="7180" windowWidth="30240" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="190">
   <si>
     <t>ID</t>
   </si>
@@ -45,33 +45,6 @@
     <t>Last modified time</t>
   </si>
   <si>
-    <t>How do they get to school?</t>
-  </si>
-  <si>
-    <t>How often do you drive?</t>
-  </si>
-  <si>
-    <t>How often do you take public transport?</t>
-  </si>
-  <si>
-    <t>How often do you walk or wheel?</t>
-  </si>
-  <si>
-    <t>How often do you cycle or scoot?</t>
-  </si>
-  <si>
-    <t>Do you commute to work?</t>
-  </si>
-  <si>
-    <t>How do you usually travel to work?</t>
-  </si>
-  <si>
-    <t>Do you have any respiratory or cardiovascular health issues?</t>
-  </si>
-  <si>
-    <t>anonymous</t>
-  </si>
-  <si>
     <t>35-44</t>
   </si>
   <si>
@@ -111,18 +84,12 @@
     <t>Lead biomedical engineer</t>
   </si>
   <si>
-    <t>Tube or walk</t>
-  </si>
-  <si>
     <t>Product designer</t>
   </si>
   <si>
     <t>Black / African / Caribbean / Black British</t>
   </si>
   <si>
-    <t>Overground + Elizabeth line</t>
-  </si>
-  <si>
     <t>Man</t>
   </si>
   <si>
@@ -549,9 +516,6 @@
     <t>occupation</t>
   </si>
   <si>
-    <t>children of school age</t>
-  </si>
-  <si>
     <t>ethnicity</t>
   </si>
   <si>
@@ -595,6 +559,42 @@
   </si>
   <si>
     <t>LIS</t>
+  </si>
+  <si>
+    <t>Train / tube;Walk</t>
+  </si>
+  <si>
+    <t>drive_freq</t>
+  </si>
+  <si>
+    <t>public_transport_freq</t>
+  </si>
+  <si>
+    <t>walk_wheel_freq</t>
+  </si>
+  <si>
+    <t>cycle_scoot_freq</t>
+  </si>
+  <si>
+    <t>commute</t>
+  </si>
+  <si>
+    <t>commute_mode</t>
+  </si>
+  <si>
+    <t>respiratory_or_cardiovascular</t>
+  </si>
+  <si>
+    <t>school_age_children</t>
+  </si>
+  <si>
+    <t>children_mode</t>
+  </si>
+  <si>
+    <t>polluting</t>
+  </si>
+  <si>
+    <t>non-polluting</t>
   </si>
 </sst>
 </file>
@@ -648,19 +648,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="57">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -809,21 +831,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
@@ -840,66 +847,68 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:BE35" totalsRowShown="0">
-  <autoFilter ref="A1:BE35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="57">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Last modified time" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="age" dataDxfId="48"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="gender" dataDxfId="47"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="occupation" dataDxfId="46"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="children of school age" dataDxfId="45"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="How do they get to school?" dataDxfId="44"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="ethnicity" dataDxfId="43"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="How often do you drive?" dataDxfId="42"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="How often do you take public transport?" dataDxfId="41"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="How often do you walk or wheel?" dataDxfId="40"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="How often do you cycle or scoot?" dataDxfId="39"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Do you commute to work?" dataDxfId="38"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="How do you usually travel to work?" dataDxfId="37"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Do you have any respiratory or cardiovascular health issues?" dataDxfId="36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:BG35" totalsRowShown="0">
+  <autoFilter ref="A1:BG35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="59">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Last modified time" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="age" dataDxfId="55"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="gender" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="occupation" dataDxfId="53"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="school_age_children" dataDxfId="52"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="children_mode" dataDxfId="51"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="ethnicity" dataDxfId="50"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="drive_freq" dataDxfId="49"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="public_transport_freq" dataDxfId="48"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="walk_wheel_freq" dataDxfId="47"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="cycle_scoot_freq" dataDxfId="46"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="commute" dataDxfId="45"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="commute_mode" dataDxfId="44"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="respiratory_or_cardiovascular" dataDxfId="43"/>
     <tableColumn id="57" xr3:uid="{2D9C5A88-048C-4442-8AC2-618E8DE310F8}" name="sample"/>
     <tableColumn id="56" xr3:uid="{24B4A9B8-4D5C-8847-B1BA-0A8BDFDCE126}" name="group"/>
-    <tableColumn id="20" xr3:uid="{47E106B6-F14D-2641-88E8-78E1B3EF9561}" name="ID2" dataDxfId="35"/>
-    <tableColumn id="21" xr3:uid="{85F82A03-E93C-7B45-B654-67B16550835C}" name="health" dataDxfId="34"/>
-    <tableColumn id="22" xr3:uid="{9C467C4C-C08A-1A46-8CA8-4279145B8D5A}" name="Street Link" dataDxfId="33"/>
-    <tableColumn id="36" xr3:uid="{282D7514-DA86-DF45-B4AA-8DA96CE4B04A}" name="capacity" dataDxfId="32"/>
-    <tableColumn id="23" xr3:uid="{282D0535-7F7D-B24B-90EA-5CE47E6A71E1}" name="Sidewalk number" dataDxfId="31"/>
-    <tableColumn id="24" xr3:uid="{F487CC05-7633-BA46-9378-5ED0EBEB8D2B}" name="Sidewalk capacity" dataDxfId="30"/>
-    <tableColumn id="25" xr3:uid="{0583BAA4-7F55-D349-8837-9D163901DFC7}" name="Sidewalk width" dataDxfId="29"/>
-    <tableColumn id="26" xr3:uid="{B56F985C-D7B9-C54F-89F8-6378FE4695CB}" name="Drive lane number" dataDxfId="28"/>
-    <tableColumn id="27" xr3:uid="{0ECB161A-E5EA-EC41-9AF9-ECAE9AB80C87}" name="Drive lane capacity" dataDxfId="27"/>
-    <tableColumn id="28" xr3:uid="{BA383285-7D61-8A4B-AD75-159E08EC4A56}" name="Drive lane width" dataDxfId="26"/>
-    <tableColumn id="41" xr3:uid="{FA08416C-C5E9-D842-AC67-DCE4AA9BA285}" name="bus lane number" dataDxfId="25"/>
-    <tableColumn id="42" xr3:uid="{56B23B0D-8869-B944-A2A9-92F2AE16B0CA}" name="bus lane capacity" dataDxfId="24"/>
-    <tableColumn id="43" xr3:uid="{E1A00160-A632-2140-98E5-71DE71C9DBB8}" name="bus lane width" dataDxfId="23"/>
-    <tableColumn id="48" xr3:uid="{4AA6D381-8C1C-7E42-9F4A-B81FEC3F9053}" name="tram lane number" dataDxfId="22"/>
-    <tableColumn id="49" xr3:uid="{1EA4B585-9067-CF4C-BB00-0A78400916DE}" name="tram lane capacity" dataDxfId="21"/>
-    <tableColumn id="50" xr3:uid="{F86EBC00-9C78-234B-B571-54F21C18A65E}" name="tram lane width" dataDxfId="20"/>
-    <tableColumn id="29" xr3:uid="{F5966B6A-5F14-4247-A1ED-63A308890583}" name="Trees number" dataDxfId="19"/>
-    <tableColumn id="30" xr3:uid="{6A8C2335-8FAD-8C49-8577-8365A2D4F436}" name="Trees width" dataDxfId="18"/>
-    <tableColumn id="31" xr3:uid="{D701D35A-594F-5E48-B6D1-E5EB9E8A77E1}" name="Other veg number" dataDxfId="17"/>
-    <tableColumn id="32" xr3:uid="{8ABB60DC-DE38-8A43-ADA6-4D88D6E1A673}" name="Other veg width" dataDxfId="16"/>
-    <tableColumn id="33" xr3:uid="{F91FE42E-622C-FB49-BB7C-05C8E1D2A531}" name="Bike lane number (or scooter)" dataDxfId="15"/>
-    <tableColumn id="34" xr3:uid="{2D402F4B-8B2B-C343-A6F5-6BB0BDEAC7A7}" name="Bike lane capacity" dataDxfId="14"/>
-    <tableColumn id="35" xr3:uid="{59F94568-FBC6-4240-A91B-D156365EF1D1}" name="Bike lane width" dataDxfId="13"/>
-    <tableColumn id="37" xr3:uid="{162C1B2A-BD76-9A4D-B6B6-4E49689921ED}" name="Commerce number" dataDxfId="12"/>
-    <tableColumn id="38" xr3:uid="{B3614BBA-0DB8-D44C-AAED-37540AF843D0}" name="Commerce width" dataDxfId="11"/>
-    <tableColumn id="39" xr3:uid="{68E94481-4668-644B-A29E-747474B3186F}" name="Seating number" dataDxfId="10"/>
-    <tableColumn id="40" xr3:uid="{2556B3F4-F651-0B49-AEA7-F185148D8624}" name="Seating width" dataDxfId="9"/>
-    <tableColumn id="44" xr3:uid="{416EC1B7-83F7-3A44-9042-D8FE265E56FE}" name="Bike rack number" dataDxfId="8"/>
-    <tableColumn id="45" xr3:uid="{F311A9AE-E288-4844-912D-0FD5C88EB0E0}" name="bike rack width" dataDxfId="7"/>
-    <tableColumn id="46" xr3:uid="{3F614B3E-9CAE-B34B-8695-68DC53096C62}" name="Transit shelter number (or waiting area)" dataDxfId="6"/>
-    <tableColumn id="47" xr3:uid="{91908489-929F-B34A-BF66-7873A9B628A5}" name="Transit shelter width" dataDxfId="5"/>
-    <tableColumn id="51" xr3:uid="{F0DBEFE0-C7ED-144A-8F06-ADE2AA30CBFD}" name="Wayfinding signs" dataDxfId="4"/>
-    <tableColumn id="52" xr3:uid="{C7A907A5-E230-6B4B-8264-99F40673ECFF}" name="Streetlights number" dataDxfId="3"/>
-    <tableColumn id="53" xr3:uid="{43DF922C-2AE9-5D42-84F6-FEEA27DD4FCE}" name="Streetlights width" dataDxfId="2"/>
-    <tableColumn id="54" xr3:uid="{C3B891C1-ACD0-CE4A-990B-43A8810311C5}" name="Car parking lanes" dataDxfId="1"/>
-    <tableColumn id="55" xr3:uid="{9CAEA4FE-1D93-A142-8347-61DEFC5E5834}" name="Car parking width" dataDxfId="0"/>
+    <tableColumn id="20" xr3:uid="{47E106B6-F14D-2641-88E8-78E1B3EF9561}" name="ID2" dataDxfId="42"/>
+    <tableColumn id="21" xr3:uid="{85F82A03-E93C-7B45-B654-67B16550835C}" name="health" dataDxfId="41"/>
+    <tableColumn id="22" xr3:uid="{9C467C4C-C08A-1A46-8CA8-4279145B8D5A}" name="Street Link" dataDxfId="40"/>
+    <tableColumn id="36" xr3:uid="{282D7514-DA86-DF45-B4AA-8DA96CE4B04A}" name="capacity" dataDxfId="39"/>
+    <tableColumn id="23" xr3:uid="{282D0535-7F7D-B24B-90EA-5CE47E6A71E1}" name="Sidewalk number" dataDxfId="38"/>
+    <tableColumn id="24" xr3:uid="{F487CC05-7633-BA46-9378-5ED0EBEB8D2B}" name="Sidewalk capacity" dataDxfId="37"/>
+    <tableColumn id="25" xr3:uid="{0583BAA4-7F55-D349-8837-9D163901DFC7}" name="Sidewalk width" dataDxfId="36"/>
+    <tableColumn id="26" xr3:uid="{B56F985C-D7B9-C54F-89F8-6378FE4695CB}" name="Drive lane number" dataDxfId="35"/>
+    <tableColumn id="27" xr3:uid="{0ECB161A-E5EA-EC41-9AF9-ECAE9AB80C87}" name="Drive lane capacity" dataDxfId="34"/>
+    <tableColumn id="28" xr3:uid="{BA383285-7D61-8A4B-AD75-159E08EC4A56}" name="Drive lane width" dataDxfId="33"/>
+    <tableColumn id="41" xr3:uid="{FA08416C-C5E9-D842-AC67-DCE4AA9BA285}" name="bus lane number" dataDxfId="32"/>
+    <tableColumn id="42" xr3:uid="{56B23B0D-8869-B944-A2A9-92F2AE16B0CA}" name="bus lane capacity" dataDxfId="31"/>
+    <tableColumn id="43" xr3:uid="{E1A00160-A632-2140-98E5-71DE71C9DBB8}" name="bus lane width" dataDxfId="30"/>
+    <tableColumn id="48" xr3:uid="{4AA6D381-8C1C-7E42-9F4A-B81FEC3F9053}" name="tram lane number" dataDxfId="29"/>
+    <tableColumn id="49" xr3:uid="{1EA4B585-9067-CF4C-BB00-0A78400916DE}" name="tram lane capacity" dataDxfId="28"/>
+    <tableColumn id="50" xr3:uid="{F86EBC00-9C78-234B-B571-54F21C18A65E}" name="tram lane width" dataDxfId="27"/>
+    <tableColumn id="29" xr3:uid="{F5966B6A-5F14-4247-A1ED-63A308890583}" name="Trees number" dataDxfId="26"/>
+    <tableColumn id="30" xr3:uid="{6A8C2335-8FAD-8C49-8577-8365A2D4F436}" name="Trees width" dataDxfId="25"/>
+    <tableColumn id="31" xr3:uid="{D701D35A-594F-5E48-B6D1-E5EB9E8A77E1}" name="Other veg number" dataDxfId="24"/>
+    <tableColumn id="32" xr3:uid="{8ABB60DC-DE38-8A43-ADA6-4D88D6E1A673}" name="Other veg width" dataDxfId="23"/>
+    <tableColumn id="33" xr3:uid="{F91FE42E-622C-FB49-BB7C-05C8E1D2A531}" name="Bike lane number (or scooter)" dataDxfId="22"/>
+    <tableColumn id="34" xr3:uid="{2D402F4B-8B2B-C343-A6F5-6BB0BDEAC7A7}" name="Bike lane capacity" dataDxfId="21"/>
+    <tableColumn id="35" xr3:uid="{59F94568-FBC6-4240-A91B-D156365EF1D1}" name="Bike lane width" dataDxfId="20"/>
+    <tableColumn id="37" xr3:uid="{162C1B2A-BD76-9A4D-B6B6-4E49689921ED}" name="Commerce number" dataDxfId="19"/>
+    <tableColumn id="38" xr3:uid="{B3614BBA-0DB8-D44C-AAED-37540AF843D0}" name="Commerce width" dataDxfId="18"/>
+    <tableColumn id="39" xr3:uid="{68E94481-4668-644B-A29E-747474B3186F}" name="Seating number" dataDxfId="17"/>
+    <tableColumn id="40" xr3:uid="{2556B3F4-F651-0B49-AEA7-F185148D8624}" name="Seating width" dataDxfId="16"/>
+    <tableColumn id="44" xr3:uid="{416EC1B7-83F7-3A44-9042-D8FE265E56FE}" name="Bike rack number" dataDxfId="15"/>
+    <tableColumn id="45" xr3:uid="{F311A9AE-E288-4844-912D-0FD5C88EB0E0}" name="bike rack width" dataDxfId="14"/>
+    <tableColumn id="46" xr3:uid="{3F614B3E-9CAE-B34B-8695-68DC53096C62}" name="Transit shelter number (or waiting area)" dataDxfId="13"/>
+    <tableColumn id="47" xr3:uid="{91908489-929F-B34A-BF66-7873A9B628A5}" name="Transit shelter width" dataDxfId="12"/>
+    <tableColumn id="51" xr3:uid="{F0DBEFE0-C7ED-144A-8F06-ADE2AA30CBFD}" name="Wayfinding signs" dataDxfId="11"/>
+    <tableColumn id="52" xr3:uid="{C7A907A5-E230-6B4B-8264-99F40673ECFF}" name="Streetlights number" dataDxfId="10"/>
+    <tableColumn id="53" xr3:uid="{43DF922C-2AE9-5D42-84F6-FEEA27DD4FCE}" name="Streetlights width" dataDxfId="9"/>
+    <tableColumn id="54" xr3:uid="{C3B891C1-ACD0-CE4A-990B-43A8810311C5}" name="Car parking lanes" dataDxfId="8"/>
+    <tableColumn id="55" xr3:uid="{9CAEA4FE-1D93-A142-8347-61DEFC5E5834}" name="Car parking width" dataDxfId="7"/>
+    <tableColumn id="58" xr3:uid="{3C6E78FC-ADC0-3443-AF69-BD0906C0E1DB}" name="polluting" dataDxfId="1"/>
+    <tableColumn id="59" xr3:uid="{F4FF0BD2-1D09-7749-A723-713931B8B546}" name="non-polluting" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1202,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE35"/>
+  <dimension ref="A1:BG35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="BH1" sqref="BH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1214,7 +1223,7 @@
     <col min="20" max="20" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1234,223 +1243,222 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="I1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="J1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" t="s">
+        <v>180</v>
+      </c>
+      <c r="O1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>183</v>
+      </c>
+      <c r="R1" t="s">
+        <v>184</v>
+      </c>
+      <c r="S1" t="s">
+        <v>185</v>
+      </c>
+      <c r="T1" t="s">
+        <v>175</v>
+      </c>
+      <c r="U1" t="s">
         <v>174</v>
       </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>175</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" t="s">
-        <v>187</v>
-      </c>
-      <c r="U1" t="s">
-        <v>186</v>
-      </c>
       <c r="V1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="W1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="X1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN1" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AO1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ1" t="s">
         <v>97</v>
       </c>
-      <c r="Z1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK1" t="s">
+      <c r="BA1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB1" t="s">
         <v>111</v>
       </c>
-      <c r="AL1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>122</v>
-      </c>
       <c r="BC1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="BD1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="BE1" t="s">
-        <v>163</v>
+        <v>152</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>45073.706655092603</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45073.788437499999</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="U2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="V2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="W2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="Y2" s="4">
         <v>57000</v>
@@ -1551,71 +1559,66 @@
       <c r="BE2">
         <v>0</v>
       </c>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="6"/>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>45075.5828356481</v>
-      </c>
-      <c r="C3" s="1">
-        <v>45075.583657407398</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R3" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="S3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T3" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="U3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="V3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="W3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="Y3" s="2">
         <v>64000</v>
@@ -1707,71 +1710,66 @@
       <c r="BE3">
         <v>0</v>
       </c>
+      <c r="BF3" s="6"/>
+      <c r="BG3" s="6"/>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
-        <v>45075.589849536998</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45075.638391203698</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" t="s">
-        <v>24</v>
-      </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="T4" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="U4" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="V4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="W4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="Y4" s="4">
         <v>90000</v>
@@ -1872,71 +1870,66 @@
       <c r="BE4">
         <v>0</v>
       </c>
+      <c r="BF4" s="6"/>
+      <c r="BG4" s="6"/>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <v>45075.652291666702</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45075.653333333299</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="O5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" t="s">
         <v>23</v>
       </c>
-      <c r="P5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>34</v>
-      </c>
       <c r="S5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T5" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="U5" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="V5" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="W5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="Y5" s="2">
         <v>60500</v>
@@ -2037,68 +2030,63 @@
       <c r="BE5">
         <v>0</v>
       </c>
+      <c r="BF5" s="6"/>
+      <c r="BG5" s="6"/>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
-        <v>45075.696238425902</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45075.713773148098</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="Q6" t="s">
         <v>23</v>
       </c>
-      <c r="O6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>34</v>
-      </c>
       <c r="S6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T6" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="U6" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="V6" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="W6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Y6" s="2">
         <v>67000</v>
@@ -2199,71 +2187,66 @@
       <c r="BE6">
         <v>0</v>
       </c>
+      <c r="BF6" s="6"/>
+      <c r="BG6" s="6"/>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
-        <v>45075.717569444401</v>
-      </c>
-      <c r="C7" s="1">
-        <v>45076.5374884259</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" t="s">
+        <v>177</v>
+      </c>
+      <c r="U7" t="s">
+        <v>172</v>
+      </c>
+      <c r="V7" t="s">
         <v>37</v>
       </c>
-      <c r="J7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>18</v>
-      </c>
-      <c r="R7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S7" t="s">
-        <v>25</v>
-      </c>
-      <c r="T7" t="s">
-        <v>189</v>
-      </c>
-      <c r="U7" t="s">
-        <v>184</v>
-      </c>
-      <c r="V7" t="s">
-        <v>48</v>
-      </c>
       <c r="W7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="Y7" s="2">
         <v>93000</v>
@@ -2364,71 +2347,66 @@
       <c r="BE7">
         <v>0</v>
       </c>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
-        <v>45076.5617361111</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45076.581458333298</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="S8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T8" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="U8" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="V8" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Y8" s="2">
         <v>75000</v>
@@ -2529,71 +2507,66 @@
       <c r="BE8">
         <v>0</v>
       </c>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
-        <v>45076.581631944398</v>
-      </c>
-      <c r="C9" s="1">
-        <v>45076.640821759298</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R9" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="S9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="T9" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="U9" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="V9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="W9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Y9" s="2">
         <v>62000</v>
@@ -2694,71 +2667,66 @@
       <c r="BE9">
         <v>0</v>
       </c>
+      <c r="BF9" s="6"/>
+      <c r="BG9" s="6"/>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
-        <v>45076.6410763889</v>
-      </c>
-      <c r="C10" s="1">
-        <v>45076.705717592602</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N10" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O10" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P10" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q10" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="S10" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T10" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="U10" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="V10" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="W10" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="Y10" s="2">
         <v>67000</v>
@@ -2859,71 +2827,66 @@
       <c r="BE10">
         <v>0</v>
       </c>
+      <c r="BF10" s="6"/>
+      <c r="BG10" s="6"/>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
-        <v>45076.705752314803</v>
-      </c>
-      <c r="C11" s="1">
-        <v>45076.752453703702</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M11" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q11" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="S11" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T11" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="U11" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="V11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="W11" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="Y11" s="2">
         <v>57000</v>
@@ -3024,71 +2987,66 @@
       <c r="BE11">
         <v>0</v>
       </c>
+      <c r="BF11" s="6"/>
+      <c r="BG11" s="6"/>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
-        <v>45076.752500000002</v>
-      </c>
-      <c r="C12" s="1">
-        <v>45076.775590277801</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N12" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P12" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q12" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R12" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="S12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="U12" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="V12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="W12" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="Y12" s="2">
         <v>109000</v>
@@ -3189,68 +3147,63 @@
       <c r="BE12">
         <v>0</v>
       </c>
+      <c r="BF12" s="6"/>
+      <c r="BG12" s="6"/>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
-        <v>45076.775636574101</v>
-      </c>
-      <c r="C13" s="1">
-        <v>45076.800972222198</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I13" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="J13" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L13" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M13" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N13" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P13" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q13" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="S13" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="U13" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="V13" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="W13" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="Y13" s="2">
         <v>97000</v>
@@ -3351,68 +3304,63 @@
       <c r="BE13">
         <v>0</v>
       </c>
+      <c r="BF13" s="6"/>
+      <c r="BG13" s="6"/>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
-        <v>45076.801076388903</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45076.8215740741</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J14" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L14" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M14" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N14" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P14" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q14" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="S14" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T14" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="U14" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="V14" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="W14" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="Y14" s="2">
         <v>64000</v>
@@ -3513,71 +3461,66 @@
       <c r="BE14">
         <v>0</v>
       </c>
+      <c r="BF14" s="6"/>
+      <c r="BG14" s="6"/>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
-        <v>45076.8216203704</v>
-      </c>
-      <c r="C15" s="1">
-        <v>45076.849097222199</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L15" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P15" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="Q15" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T15" t="s">
+        <v>177</v>
+      </c>
+      <c r="U15" t="s">
+        <v>172</v>
+      </c>
+      <c r="V15" t="s">
         <v>45</v>
       </c>
-      <c r="S15" t="s">
-        <v>25</v>
-      </c>
-      <c r="T15" t="s">
-        <v>189</v>
-      </c>
-      <c r="U15" t="s">
-        <v>184</v>
-      </c>
-      <c r="V15" t="s">
-        <v>56</v>
-      </c>
       <c r="W15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="Y15" s="2">
         <v>90000</v>
@@ -3678,71 +3621,66 @@
       <c r="BE15">
         <v>0</v>
       </c>
+      <c r="BF15" s="6"/>
+      <c r="BG15" s="6"/>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16" s="1">
-        <v>45077.503599536998</v>
-      </c>
-      <c r="C16" s="1">
-        <v>45077.504351851901</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="Q16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R16" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="S16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T16" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="U16" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="V16" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="W16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="Y16" s="2">
         <v>72000</v>
@@ -3843,71 +3781,66 @@
       <c r="BE16">
         <v>0</v>
       </c>
+      <c r="BF16" s="6"/>
+      <c r="BG16" s="6"/>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
-      <c r="B17" s="1">
-        <v>45077.5086226852</v>
-      </c>
-      <c r="C17" s="1">
-        <v>45077.526550925897</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="J17" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M17" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P17" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="Q17" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="S17" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T17" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="U17" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="V17" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="W17" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="Y17" s="2">
         <v>64000</v>
@@ -4008,71 +3941,66 @@
       <c r="BE17">
         <v>0</v>
       </c>
+      <c r="BF17" s="6"/>
+      <c r="BG17" s="6"/>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
-      <c r="B18" s="1">
-        <v>45077.586585648103</v>
-      </c>
-      <c r="C18" s="1">
-        <v>45077.587997685201</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="J18" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L18" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="M18" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N18" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P18" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q18" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R18" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="S18" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="T18" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="U18" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="V18" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="W18" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="Y18" s="2">
         <v>90000</v>
@@ -4173,74 +4101,69 @@
       <c r="BE18">
         <v>0</v>
       </c>
+      <c r="BF18" s="6"/>
+      <c r="BG18" s="6"/>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
-      <c r="B19" s="1">
-        <v>45077.588252314803</v>
-      </c>
-      <c r="C19" s="1">
-        <v>45077.624988425901</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K19" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="M19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q19" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R19" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="S19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T19" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="U19" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="V19" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="W19" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="Y19" s="2">
         <v>40000</v>
@@ -4341,71 +4264,66 @@
       <c r="BE19">
         <v>0</v>
       </c>
+      <c r="BF19" s="6"/>
+      <c r="BG19" s="6"/>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
-      <c r="B20" s="1">
-        <v>45077.625254629602</v>
-      </c>
-      <c r="C20" s="1">
-        <v>45077.702951388899</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I20" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="J20" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L20" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M20" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N20" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P20" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q20" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R20" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="S20" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T20" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="U20" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="V20" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="W20" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="Y20" s="2">
         <v>72000</v>
@@ -4506,71 +4424,66 @@
       <c r="BE20">
         <v>0</v>
       </c>
+      <c r="BF20" s="6"/>
+      <c r="BG20" s="6"/>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21" s="1">
-        <v>45077.703009259298</v>
-      </c>
-      <c r="C21" s="1">
-        <v>45077.725266203699</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="J21" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L21" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M21" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N21" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="O21" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P21" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q21" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R21" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="S21" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T21" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="U21" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="V21" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="W21" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="Y21" s="2">
         <v>66000</v>
@@ -4671,71 +4584,66 @@
       <c r="BE21">
         <v>0</v>
       </c>
+      <c r="BF21" s="6"/>
+      <c r="BG21" s="6"/>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" s="1">
-        <v>45077.725636574098</v>
-      </c>
-      <c r="C22" s="1">
-        <v>45077.777673611097</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H22" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J22" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L22" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M22" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N22" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O22" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="P22" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q22" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R22" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="S22" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T22" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="U22" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="V22" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="W22" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="Y22" s="2">
         <v>40000</v>
@@ -4836,71 +4744,66 @@
       <c r="BE22">
         <v>0</v>
       </c>
+      <c r="BF22" s="6"/>
+      <c r="BG22" s="6"/>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
-      <c r="B23" s="1">
-        <v>45077.777824074103</v>
-      </c>
-      <c r="C23" s="1">
-        <v>45077.798958333296</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I23" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="J23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L23" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="M23" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N23" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="O23" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P23" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q23" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R23" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="S23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T23" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="U23" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="V23" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="W23" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="Y23" s="2">
         <v>90000</v>
@@ -5001,68 +4904,63 @@
       <c r="BE23">
         <v>0</v>
       </c>
+      <c r="BF23" s="6"/>
+      <c r="BG23" s="6"/>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
-      <c r="B24" s="1">
-        <v>45077.799050925903</v>
-      </c>
-      <c r="C24" s="1">
-        <v>45078.556550925903</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H24" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J24" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L24" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M24" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N24" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O24" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P24" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="Q24" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R24" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="S24" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T24" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="U24" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="V24" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="W24" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="Y24" s="2">
         <v>68000</v>
@@ -5163,71 +5061,66 @@
       <c r="BE24">
         <v>0</v>
       </c>
+      <c r="BF24" s="6"/>
+      <c r="BG24" s="6"/>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
-      <c r="B25" s="1">
-        <v>45078.556597222203</v>
-      </c>
-      <c r="C25" s="1">
-        <v>45078.611365740697</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I25" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="J25" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L25" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M25" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N25" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O25" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P25" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q25" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R25" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="S25" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T25" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="U25" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="V25" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="W25" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="Y25" s="2">
         <v>66000</v>
@@ -5328,71 +5221,66 @@
       <c r="BE25">
         <v>0</v>
       </c>
+      <c r="BF25" s="6"/>
+      <c r="BG25" s="6"/>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
-      <c r="B26" s="1">
-        <v>45078.611423611103</v>
-      </c>
-      <c r="C26" s="1">
-        <v>45078.669733796298</v>
-      </c>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="J26" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L26" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M26" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N26" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="O26" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P26" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q26" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R26" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="S26" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T26" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="U26" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="V26" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="W26" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="Y26" s="2">
         <v>58000</v>
@@ -5493,71 +5381,66 @@
       <c r="BE26">
         <v>0</v>
       </c>
+      <c r="BF26" s="6"/>
+      <c r="BG26" s="6"/>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
-      <c r="B27" s="1">
-        <v>45078.6698032407</v>
-      </c>
-      <c r="C27" s="1">
-        <v>45078.702997685199</v>
-      </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J27" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L27" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M27" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N27" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O27" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P27" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="Q27" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R27" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="S27" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T27" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="U27" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="V27" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="W27" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="Y27" s="2">
         <v>62000</v>
@@ -5658,71 +5541,66 @@
       <c r="BE27">
         <v>2.1</v>
       </c>
+      <c r="BF27" s="6"/>
+      <c r="BG27" s="6"/>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
-      <c r="B28" s="1">
-        <v>45078.703275462998</v>
-      </c>
-      <c r="C28" s="1">
-        <v>45078.7194212963</v>
-      </c>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H28" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I28" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K28" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="L28" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M28" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N28" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="O28" t="s">
+        <v>14</v>
+      </c>
+      <c r="P28" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q28" t="s">
         <v>23</v>
       </c>
-      <c r="P28" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>34</v>
-      </c>
       <c r="S28" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T28" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="U28" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="V28" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="W28" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="Y28" s="2">
         <v>75000</v>
@@ -5823,71 +5701,66 @@
       <c r="BE28">
         <v>0</v>
       </c>
+      <c r="BF28" s="6"/>
+      <c r="BG28" s="6"/>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
-      <c r="B29" s="1">
-        <v>45079.505983796298</v>
-      </c>
-      <c r="C29" s="1">
-        <v>45079.514988425901</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" t="s">
         <v>26</v>
       </c>
-      <c r="H29" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" t="s">
-        <v>37</v>
-      </c>
       <c r="J29" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L29" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M29" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N29" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="O29" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P29" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="Q29" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R29" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="S29" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T29" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="U29" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="V29" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="W29" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="X29" s="5" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="Y29" s="2">
         <v>66000</v>
@@ -5988,71 +5861,66 @@
       <c r="BE29">
         <v>0</v>
       </c>
+      <c r="BF29" s="6"/>
+      <c r="BG29" s="6"/>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
-      <c r="B30" s="1">
-        <v>45079.5153125</v>
-      </c>
-      <c r="C30" s="1">
-        <v>45079.557673611103</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H30" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I30" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L30" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M30" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N30" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="O30" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P30" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q30" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R30" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="S30" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="T30" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="U30" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="V30" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="W30" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="X30" s="5" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="Y30" s="2">
         <v>90000</v>
@@ -6153,71 +6021,66 @@
       <c r="BE30">
         <v>0</v>
       </c>
+      <c r="BF30" s="6"/>
+      <c r="BG30" s="6"/>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
-      <c r="B31" s="1">
-        <v>45080.624872685199</v>
-      </c>
-      <c r="C31" s="1">
-        <v>45080.707511574103</v>
-      </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H31" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I31" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J31" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L31" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N31" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="O31" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P31" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q31" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R31" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="S31" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T31" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="U31" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="V31" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="W31" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="X31" s="5" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="Y31" s="2">
         <v>72000</v>
@@ -6318,71 +6181,66 @@
       <c r="BE31">
         <v>0</v>
       </c>
+      <c r="BF31" s="6"/>
+      <c r="BG31" s="6"/>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
-      <c r="B32" s="1">
-        <v>45080.707569444399</v>
-      </c>
-      <c r="C32" s="1">
-        <v>45080.748310185198</v>
-      </c>
-      <c r="D32" t="s">
-        <v>14</v>
-      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" t="s">
         <v>15</v>
       </c>
-      <c r="H32" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" t="s">
-        <v>93</v>
-      </c>
-      <c r="J32" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M32" t="s">
-        <v>24</v>
-      </c>
       <c r="N32" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O32" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P32" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q32" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R32" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="S32" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T32" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="U32" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="V32" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="W32" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="X32" s="5" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="Y32" s="2">
         <v>57000</v>
@@ -6483,71 +6341,66 @@
       <c r="BE32">
         <v>0</v>
       </c>
+      <c r="BF32" s="6"/>
+      <c r="BG32" s="6"/>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
-      <c r="B33" s="1">
-        <v>45080.755949074097</v>
-      </c>
-      <c r="C33" s="1">
-        <v>45080.773877314801</v>
-      </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H33" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I33" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J33" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L33" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M33" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N33" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O33" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P33" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q33" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R33" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="S33" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T33" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="U33" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="V33" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="W33" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="X33" s="5" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="Y33" s="2">
         <v>60500</v>
@@ -6648,71 +6501,66 @@
       <c r="BE33">
         <v>0</v>
       </c>
+      <c r="BF33" s="6"/>
+      <c r="BG33" s="6"/>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
-      <c r="B34" s="1">
-        <v>44991.773958333331</v>
-      </c>
-      <c r="C34" s="1">
-        <v>45022.802303240744</v>
-      </c>
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I34" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="J34" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L34" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M34" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N34" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="O34" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="P34" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="Q34" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R34" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="S34" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T34" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="U34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="V34" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="W34" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="X34" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="Y34" s="2">
         <v>63000</v>
@@ -6813,71 +6661,66 @@
       <c r="BE34">
         <v>0</v>
       </c>
+      <c r="BF34" s="6"/>
+      <c r="BG34" s="6"/>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
-      <c r="B35" s="1">
-        <v>45022.814733796295</v>
-      </c>
-      <c r="C35" s="1">
-        <v>45022.826770833337</v>
-      </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I35" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="J35" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L35" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N35" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O35" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P35" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q35" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R35" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="S35" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T35" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="U35" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="V35" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="W35" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="X35" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="Y35" s="2">
         <v>71500</v>
@@ -6978,6 +6821,8 @@
       <c r="BE35">
         <v>0</v>
       </c>
+      <c r="BF35" s="6"/>
+      <c r="BG35" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/2c Data.xlsx
+++ b/2c Data.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomfox/Documents/Uni/2.3/2c-Data-Science/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D867F5-61CC-8649-A299-F7A8A224F20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66060722-2BCD-D342-BDED-0D5933C460CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="7180" windowWidth="30240" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="192">
   <si>
     <t>ID</t>
   </si>
@@ -591,10 +602,16 @@
     <t>children_mode</t>
   </si>
   <si>
-    <t>polluting</t>
-  </si>
-  <si>
-    <t>non-polluting</t>
+    <t>polluting_space</t>
+  </si>
+  <si>
+    <t>non-polluting_space</t>
+  </si>
+  <si>
+    <t>movement_space</t>
+  </si>
+  <si>
+    <t>stationary_space</t>
   </si>
 </sst>
 </file>
@@ -661,7 +678,13 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="59">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -847,68 +870,78 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:BG35" totalsRowShown="0">
-  <autoFilter ref="A1:BG35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="59">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Last modified time" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="age" dataDxfId="55"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="gender" dataDxfId="54"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="occupation" dataDxfId="53"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="school_age_children" dataDxfId="52"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="children_mode" dataDxfId="51"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="ethnicity" dataDxfId="50"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="drive_freq" dataDxfId="49"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="public_transport_freq" dataDxfId="48"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="walk_wheel_freq" dataDxfId="47"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="cycle_scoot_freq" dataDxfId="46"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="commute" dataDxfId="45"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="commute_mode" dataDxfId="44"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="respiratory_or_cardiovascular" dataDxfId="43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:BI35" totalsRowShown="0">
+  <autoFilter ref="A1:BI35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="61">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Last modified time" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="age" dataDxfId="57"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="gender" dataDxfId="56"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="occupation" dataDxfId="55"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="school_age_children" dataDxfId="54"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="children_mode" dataDxfId="53"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="ethnicity" dataDxfId="52"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="drive_freq" dataDxfId="51"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="public_transport_freq" dataDxfId="50"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="walk_wheel_freq" dataDxfId="49"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="cycle_scoot_freq" dataDxfId="48"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="commute" dataDxfId="47"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="commute_mode" dataDxfId="46"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="respiratory_or_cardiovascular" dataDxfId="45"/>
     <tableColumn id="57" xr3:uid="{2D9C5A88-048C-4442-8AC2-618E8DE310F8}" name="sample"/>
     <tableColumn id="56" xr3:uid="{24B4A9B8-4D5C-8847-B1BA-0A8BDFDCE126}" name="group"/>
-    <tableColumn id="20" xr3:uid="{47E106B6-F14D-2641-88E8-78E1B3EF9561}" name="ID2" dataDxfId="42"/>
-    <tableColumn id="21" xr3:uid="{85F82A03-E93C-7B45-B654-67B16550835C}" name="health" dataDxfId="41"/>
-    <tableColumn id="22" xr3:uid="{9C467C4C-C08A-1A46-8CA8-4279145B8D5A}" name="Street Link" dataDxfId="40"/>
-    <tableColumn id="36" xr3:uid="{282D7514-DA86-DF45-B4AA-8DA96CE4B04A}" name="capacity" dataDxfId="39"/>
-    <tableColumn id="23" xr3:uid="{282D0535-7F7D-B24B-90EA-5CE47E6A71E1}" name="Sidewalk number" dataDxfId="38"/>
-    <tableColumn id="24" xr3:uid="{F487CC05-7633-BA46-9378-5ED0EBEB8D2B}" name="Sidewalk capacity" dataDxfId="37"/>
-    <tableColumn id="25" xr3:uid="{0583BAA4-7F55-D349-8837-9D163901DFC7}" name="Sidewalk width" dataDxfId="36"/>
-    <tableColumn id="26" xr3:uid="{B56F985C-D7B9-C54F-89F8-6378FE4695CB}" name="Drive lane number" dataDxfId="35"/>
-    <tableColumn id="27" xr3:uid="{0ECB161A-E5EA-EC41-9AF9-ECAE9AB80C87}" name="Drive lane capacity" dataDxfId="34"/>
-    <tableColumn id="28" xr3:uid="{BA383285-7D61-8A4B-AD75-159E08EC4A56}" name="Drive lane width" dataDxfId="33"/>
-    <tableColumn id="41" xr3:uid="{FA08416C-C5E9-D842-AC67-DCE4AA9BA285}" name="bus lane number" dataDxfId="32"/>
-    <tableColumn id="42" xr3:uid="{56B23B0D-8869-B944-A2A9-92F2AE16B0CA}" name="bus lane capacity" dataDxfId="31"/>
-    <tableColumn id="43" xr3:uid="{E1A00160-A632-2140-98E5-71DE71C9DBB8}" name="bus lane width" dataDxfId="30"/>
-    <tableColumn id="48" xr3:uid="{4AA6D381-8C1C-7E42-9F4A-B81FEC3F9053}" name="tram lane number" dataDxfId="29"/>
-    <tableColumn id="49" xr3:uid="{1EA4B585-9067-CF4C-BB00-0A78400916DE}" name="tram lane capacity" dataDxfId="28"/>
-    <tableColumn id="50" xr3:uid="{F86EBC00-9C78-234B-B571-54F21C18A65E}" name="tram lane width" dataDxfId="27"/>
-    <tableColumn id="29" xr3:uid="{F5966B6A-5F14-4247-A1ED-63A308890583}" name="Trees number" dataDxfId="26"/>
-    <tableColumn id="30" xr3:uid="{6A8C2335-8FAD-8C49-8577-8365A2D4F436}" name="Trees width" dataDxfId="25"/>
-    <tableColumn id="31" xr3:uid="{D701D35A-594F-5E48-B6D1-E5EB9E8A77E1}" name="Other veg number" dataDxfId="24"/>
-    <tableColumn id="32" xr3:uid="{8ABB60DC-DE38-8A43-ADA6-4D88D6E1A673}" name="Other veg width" dataDxfId="23"/>
-    <tableColumn id="33" xr3:uid="{F91FE42E-622C-FB49-BB7C-05C8E1D2A531}" name="Bike lane number (or scooter)" dataDxfId="22"/>
-    <tableColumn id="34" xr3:uid="{2D402F4B-8B2B-C343-A6F5-6BB0BDEAC7A7}" name="Bike lane capacity" dataDxfId="21"/>
-    <tableColumn id="35" xr3:uid="{59F94568-FBC6-4240-A91B-D156365EF1D1}" name="Bike lane width" dataDxfId="20"/>
-    <tableColumn id="37" xr3:uid="{162C1B2A-BD76-9A4D-B6B6-4E49689921ED}" name="Commerce number" dataDxfId="19"/>
-    <tableColumn id="38" xr3:uid="{B3614BBA-0DB8-D44C-AAED-37540AF843D0}" name="Commerce width" dataDxfId="18"/>
-    <tableColumn id="39" xr3:uid="{68E94481-4668-644B-A29E-747474B3186F}" name="Seating number" dataDxfId="17"/>
-    <tableColumn id="40" xr3:uid="{2556B3F4-F651-0B49-AEA7-F185148D8624}" name="Seating width" dataDxfId="16"/>
-    <tableColumn id="44" xr3:uid="{416EC1B7-83F7-3A44-9042-D8FE265E56FE}" name="Bike rack number" dataDxfId="15"/>
-    <tableColumn id="45" xr3:uid="{F311A9AE-E288-4844-912D-0FD5C88EB0E0}" name="bike rack width" dataDxfId="14"/>
-    <tableColumn id="46" xr3:uid="{3F614B3E-9CAE-B34B-8695-68DC53096C62}" name="Transit shelter number (or waiting area)" dataDxfId="13"/>
-    <tableColumn id="47" xr3:uid="{91908489-929F-B34A-BF66-7873A9B628A5}" name="Transit shelter width" dataDxfId="12"/>
-    <tableColumn id="51" xr3:uid="{F0DBEFE0-C7ED-144A-8F06-ADE2AA30CBFD}" name="Wayfinding signs" dataDxfId="11"/>
-    <tableColumn id="52" xr3:uid="{C7A907A5-E230-6B4B-8264-99F40673ECFF}" name="Streetlights number" dataDxfId="10"/>
-    <tableColumn id="53" xr3:uid="{43DF922C-2AE9-5D42-84F6-FEEA27DD4FCE}" name="Streetlights width" dataDxfId="9"/>
-    <tableColumn id="54" xr3:uid="{C3B891C1-ACD0-CE4A-990B-43A8810311C5}" name="Car parking lanes" dataDxfId="8"/>
-    <tableColumn id="55" xr3:uid="{9CAEA4FE-1D93-A142-8347-61DEFC5E5834}" name="Car parking width" dataDxfId="7"/>
-    <tableColumn id="58" xr3:uid="{3C6E78FC-ADC0-3443-AF69-BD0906C0E1DB}" name="polluting" dataDxfId="1"/>
-    <tableColumn id="59" xr3:uid="{F4FF0BD2-1D09-7749-A723-713931B8B546}" name="non-polluting" dataDxfId="0"/>
+    <tableColumn id="20" xr3:uid="{47E106B6-F14D-2641-88E8-78E1B3EF9561}" name="ID2" dataDxfId="44"/>
+    <tableColumn id="21" xr3:uid="{85F82A03-E93C-7B45-B654-67B16550835C}" name="health" dataDxfId="43"/>
+    <tableColumn id="22" xr3:uid="{9C467C4C-C08A-1A46-8CA8-4279145B8D5A}" name="Street Link" dataDxfId="42"/>
+    <tableColumn id="36" xr3:uid="{282D7514-DA86-DF45-B4AA-8DA96CE4B04A}" name="capacity" dataDxfId="41"/>
+    <tableColumn id="23" xr3:uid="{282D0535-7F7D-B24B-90EA-5CE47E6A71E1}" name="Sidewalk number" dataDxfId="40"/>
+    <tableColumn id="24" xr3:uid="{F487CC05-7633-BA46-9378-5ED0EBEB8D2B}" name="Sidewalk capacity" dataDxfId="39"/>
+    <tableColumn id="25" xr3:uid="{0583BAA4-7F55-D349-8837-9D163901DFC7}" name="Sidewalk width" dataDxfId="38"/>
+    <tableColumn id="26" xr3:uid="{B56F985C-D7B9-C54F-89F8-6378FE4695CB}" name="Drive lane number" dataDxfId="37"/>
+    <tableColumn id="27" xr3:uid="{0ECB161A-E5EA-EC41-9AF9-ECAE9AB80C87}" name="Drive lane capacity" dataDxfId="36"/>
+    <tableColumn id="28" xr3:uid="{BA383285-7D61-8A4B-AD75-159E08EC4A56}" name="Drive lane width" dataDxfId="35"/>
+    <tableColumn id="41" xr3:uid="{FA08416C-C5E9-D842-AC67-DCE4AA9BA285}" name="bus lane number" dataDxfId="34"/>
+    <tableColumn id="42" xr3:uid="{56B23B0D-8869-B944-A2A9-92F2AE16B0CA}" name="bus lane capacity" dataDxfId="33"/>
+    <tableColumn id="43" xr3:uid="{E1A00160-A632-2140-98E5-71DE71C9DBB8}" name="bus lane width" dataDxfId="32"/>
+    <tableColumn id="48" xr3:uid="{4AA6D381-8C1C-7E42-9F4A-B81FEC3F9053}" name="tram lane number" dataDxfId="31"/>
+    <tableColumn id="49" xr3:uid="{1EA4B585-9067-CF4C-BB00-0A78400916DE}" name="tram lane capacity" dataDxfId="30"/>
+    <tableColumn id="50" xr3:uid="{F86EBC00-9C78-234B-B571-54F21C18A65E}" name="tram lane width" dataDxfId="29"/>
+    <tableColumn id="29" xr3:uid="{F5966B6A-5F14-4247-A1ED-63A308890583}" name="Trees number" dataDxfId="28"/>
+    <tableColumn id="30" xr3:uid="{6A8C2335-8FAD-8C49-8577-8365A2D4F436}" name="Trees width" dataDxfId="27"/>
+    <tableColumn id="31" xr3:uid="{D701D35A-594F-5E48-B6D1-E5EB9E8A77E1}" name="Other veg number" dataDxfId="26"/>
+    <tableColumn id="32" xr3:uid="{8ABB60DC-DE38-8A43-ADA6-4D88D6E1A673}" name="Other veg width" dataDxfId="25"/>
+    <tableColumn id="33" xr3:uid="{F91FE42E-622C-FB49-BB7C-05C8E1D2A531}" name="Bike lane number (or scooter)" dataDxfId="24"/>
+    <tableColumn id="34" xr3:uid="{2D402F4B-8B2B-C343-A6F5-6BB0BDEAC7A7}" name="Bike lane capacity" dataDxfId="23"/>
+    <tableColumn id="35" xr3:uid="{59F94568-FBC6-4240-A91B-D156365EF1D1}" name="Bike lane width" dataDxfId="22"/>
+    <tableColumn id="37" xr3:uid="{162C1B2A-BD76-9A4D-B6B6-4E49689921ED}" name="Commerce number" dataDxfId="21"/>
+    <tableColumn id="38" xr3:uid="{B3614BBA-0DB8-D44C-AAED-37540AF843D0}" name="Commerce width" dataDxfId="20"/>
+    <tableColumn id="39" xr3:uid="{68E94481-4668-644B-A29E-747474B3186F}" name="Seating number" dataDxfId="19"/>
+    <tableColumn id="40" xr3:uid="{2556B3F4-F651-0B49-AEA7-F185148D8624}" name="Seating width" dataDxfId="18"/>
+    <tableColumn id="44" xr3:uid="{416EC1B7-83F7-3A44-9042-D8FE265E56FE}" name="Bike rack number" dataDxfId="17"/>
+    <tableColumn id="45" xr3:uid="{F311A9AE-E288-4844-912D-0FD5C88EB0E0}" name="bike rack width" dataDxfId="16"/>
+    <tableColumn id="46" xr3:uid="{3F614B3E-9CAE-B34B-8695-68DC53096C62}" name="Transit shelter number (or waiting area)" dataDxfId="15"/>
+    <tableColumn id="47" xr3:uid="{91908489-929F-B34A-BF66-7873A9B628A5}" name="Transit shelter width" dataDxfId="14"/>
+    <tableColumn id="51" xr3:uid="{F0DBEFE0-C7ED-144A-8F06-ADE2AA30CBFD}" name="Wayfinding signs" dataDxfId="13"/>
+    <tableColumn id="52" xr3:uid="{C7A907A5-E230-6B4B-8264-99F40673ECFF}" name="Streetlights number" dataDxfId="12"/>
+    <tableColumn id="53" xr3:uid="{43DF922C-2AE9-5D42-84F6-FEEA27DD4FCE}" name="Streetlights width" dataDxfId="11"/>
+    <tableColumn id="54" xr3:uid="{C3B891C1-ACD0-CE4A-990B-43A8810311C5}" name="Car parking lanes" dataDxfId="10"/>
+    <tableColumn id="55" xr3:uid="{9CAEA4FE-1D93-A142-8347-61DEFC5E5834}" name="Car parking width" dataDxfId="9"/>
+    <tableColumn id="58" xr3:uid="{3C6E78FC-ADC0-3443-AF69-BD0906C0E1DB}" name="polluting_space" dataDxfId="3">
+      <calculatedColumnFormula>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="59" xr3:uid="{F4FF0BD2-1D09-7749-A723-713931B8B546}" name="non-polluting_space" dataDxfId="2">
+      <calculatedColumnFormula>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="60" xr3:uid="{D39F3D8D-338A-9546-8E01-F36DA0E1F45B}" name="movement_space" dataDxfId="1">
+      <calculatedColumnFormula>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="61" xr3:uid="{01B6E9EB-341B-3A41-A9CD-1A658BE75F39}" name="stationary_space" dataDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1211,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG35"/>
+  <dimension ref="A1:BI35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="BH1" sqref="BH1"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="BI3" sqref="BI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1223,7 +1256,7 @@
     <col min="20" max="20" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1401,8 +1434,14 @@
       <c r="BG1" t="s">
         <v>189</v>
       </c>
+      <c r="BH1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>191</v>
+      </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1559,10 +1598,24 @@
       <c r="BE2">
         <v>0</v>
       </c>
-      <c r="BF2" s="6"/>
-      <c r="BG2" s="6"/>
+      <c r="BF2" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>6</v>
+      </c>
+      <c r="BG2" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>13.8</v>
+      </c>
+      <c r="BH2" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>13.2</v>
+      </c>
+      <c r="BI2" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>4.8</v>
+      </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1710,10 +1763,24 @@
       <c r="BE3">
         <v>0</v>
       </c>
-      <c r="BF3" s="6"/>
-      <c r="BG3" s="6"/>
+      <c r="BF3" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>6.8</v>
+      </c>
+      <c r="BG3" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="BH3" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>14</v>
+      </c>
+      <c r="BI3" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>10.8</v>
+      </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1870,10 +1937,24 @@
       <c r="BE4">
         <v>0</v>
       </c>
-      <c r="BF4" s="6"/>
-      <c r="BG4" s="6"/>
+      <c r="BF4" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>0</v>
+      </c>
+      <c r="BG4" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>22.199999999999996</v>
+      </c>
+      <c r="BH4" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>17.400000000000002</v>
+      </c>
+      <c r="BI4" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>4.8</v>
+      </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2030,10 +2111,24 @@
       <c r="BE5">
         <v>0</v>
       </c>
-      <c r="BF5" s="6"/>
-      <c r="BG5" s="6"/>
+      <c r="BF5" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>6.6</v>
+      </c>
+      <c r="BG5" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>14.6</v>
+      </c>
+      <c r="BH5" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>15.799999999999999</v>
+      </c>
+      <c r="BI5" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>5.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2187,10 +2282,24 @@
       <c r="BE6">
         <v>0</v>
       </c>
-      <c r="BF6" s="6"/>
-      <c r="BG6" s="6"/>
+      <c r="BF6" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>13.2</v>
+      </c>
+      <c r="BG6" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>11.8</v>
+      </c>
+      <c r="BH6" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>23.2</v>
+      </c>
+      <c r="BI6" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -2347,10 +2456,24 @@
       <c r="BE7">
         <v>0</v>
       </c>
-      <c r="BF7" s="6"/>
-      <c r="BG7" s="6"/>
+      <c r="BF7" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>6.4</v>
+      </c>
+      <c r="BG7" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>19.2</v>
+      </c>
+      <c r="BH7" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>21.2</v>
+      </c>
+      <c r="BI7" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -2507,10 +2630,24 @@
       <c r="BE8">
         <v>0</v>
       </c>
-      <c r="BF8" s="6"/>
-      <c r="BG8" s="6"/>
+      <c r="BF8" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>6</v>
+      </c>
+      <c r="BG8" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>14.299999999999999</v>
+      </c>
+      <c r="BH8" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="BI8" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>5.4</v>
+      </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -2667,10 +2804,24 @@
       <c r="BE9">
         <v>0</v>
       </c>
-      <c r="BF9" s="6"/>
-      <c r="BG9" s="6"/>
+      <c r="BF9" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>9.6</v>
+      </c>
+      <c r="BG9" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>10.5</v>
+      </c>
+      <c r="BH9" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>16.5</v>
+      </c>
+      <c r="BI9" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>2.7</v>
+      </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -2827,10 +2978,24 @@
       <c r="BE10">
         <v>0</v>
       </c>
-      <c r="BF10" s="6"/>
-      <c r="BG10" s="6"/>
+      <c r="BF10" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>11</v>
+      </c>
+      <c r="BG10" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>7.8</v>
+      </c>
+      <c r="BH10" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>18.200000000000003</v>
+      </c>
+      <c r="BI10" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -2987,10 +3152,24 @@
       <c r="BE11">
         <v>0</v>
       </c>
-      <c r="BF11" s="6"/>
-      <c r="BG11" s="6"/>
+      <c r="BF11" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>6</v>
+      </c>
+      <c r="BG11" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>13.8</v>
+      </c>
+      <c r="BH11" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>15</v>
+      </c>
+      <c r="BI11" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -3147,10 +3326,24 @@
       <c r="BE12">
         <v>0</v>
       </c>
-      <c r="BF12" s="6"/>
-      <c r="BG12" s="6"/>
+      <c r="BF12" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>6.7</v>
+      </c>
+      <c r="BG12" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>14.600000000000001</v>
+      </c>
+      <c r="BH12" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>20.300000000000004</v>
+      </c>
+      <c r="BI12" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>7.2</v>
+      </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3304,10 +3497,24 @@
       <c r="BE13">
         <v>0</v>
       </c>
-      <c r="BF13" s="6"/>
-      <c r="BG13" s="6"/>
+      <c r="BF13" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>11.2</v>
+      </c>
+      <c r="BG13" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>12.5</v>
+      </c>
+      <c r="BH13" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>22</v>
+      </c>
+      <c r="BI13" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -3461,10 +3668,24 @@
       <c r="BE14">
         <v>0</v>
       </c>
-      <c r="BF14" s="6"/>
-      <c r="BG14" s="6"/>
+      <c r="BF14" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>7.2</v>
+      </c>
+      <c r="BG14" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>10.8</v>
+      </c>
+      <c r="BH14" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>14.4</v>
+      </c>
+      <c r="BI14" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>11.8</v>
+      </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3621,10 +3842,24 @@
       <c r="BE15">
         <v>0</v>
       </c>
-      <c r="BF15" s="6"/>
-      <c r="BG15" s="6"/>
+      <c r="BF15" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>0</v>
+      </c>
+      <c r="BG15" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>17</v>
+      </c>
+      <c r="BH15" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>15.799999999999999</v>
+      </c>
+      <c r="BI15" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>7.6</v>
+      </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3781,10 +4016,24 @@
       <c r="BE16">
         <v>0</v>
       </c>
-      <c r="BF16" s="6"/>
-      <c r="BG16" s="6"/>
+      <c r="BF16" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>0</v>
+      </c>
+      <c r="BG16" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="BH16" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>10.6</v>
+      </c>
+      <c r="BI16" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>3.3</v>
+      </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3941,10 +4190,24 @@
       <c r="BE17">
         <v>0</v>
       </c>
-      <c r="BF17" s="6"/>
-      <c r="BG17" s="6"/>
+      <c r="BF17" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>7.2</v>
+      </c>
+      <c r="BG17" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>11.7</v>
+      </c>
+      <c r="BH17" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>17.2</v>
+      </c>
+      <c r="BI17" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>9.3000000000000007</v>
+      </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -4101,10 +4364,24 @@
       <c r="BE18">
         <v>0</v>
       </c>
-      <c r="BF18" s="6"/>
-      <c r="BG18" s="6"/>
+      <c r="BF18" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>0</v>
+      </c>
+      <c r="BG18" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>22.3</v>
+      </c>
+      <c r="BH18" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>14.9</v>
+      </c>
+      <c r="BI18" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>8.3999999999999986</v>
+      </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -4264,10 +4541,24 @@
       <c r="BE19">
         <v>0</v>
       </c>
-      <c r="BF19" s="6"/>
-      <c r="BG19" s="6"/>
+      <c r="BF19" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>7.2</v>
+      </c>
+      <c r="BG19" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>11</v>
+      </c>
+      <c r="BH19" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>10.8</v>
+      </c>
+      <c r="BI19" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>12.9</v>
+      </c>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -4424,10 +4715,24 @@
       <c r="BE20">
         <v>0</v>
       </c>
-      <c r="BF20" s="6"/>
-      <c r="BG20" s="6"/>
+      <c r="BF20" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>0</v>
+      </c>
+      <c r="BG20" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>17.099999999999998</v>
+      </c>
+      <c r="BH20" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>12.7</v>
+      </c>
+      <c r="BI20" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>11.399999999999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -4584,10 +4889,24 @@
       <c r="BE21">
         <v>0</v>
       </c>
-      <c r="BF21" s="6"/>
-      <c r="BG21" s="6"/>
+      <c r="BF21" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>0</v>
+      </c>
+      <c r="BG21" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>14.8</v>
+      </c>
+      <c r="BH21" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>10.8</v>
+      </c>
+      <c r="BI21" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>9.7999999999999989</v>
+      </c>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -4744,10 +5063,24 @@
       <c r="BE22">
         <v>0</v>
       </c>
-      <c r="BF22" s="6"/>
-      <c r="BG22" s="6"/>
+      <c r="BF22" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>7.2</v>
+      </c>
+      <c r="BG22" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>10.8</v>
+      </c>
+      <c r="BH22" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="BI22" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>6.2</v>
+      </c>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -4904,10 +5237,24 @@
       <c r="BE23">
         <v>0</v>
       </c>
-      <c r="BF23" s="6"/>
-      <c r="BG23" s="6"/>
+      <c r="BF23" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>0</v>
+      </c>
+      <c r="BG23" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>27.599999999999998</v>
+      </c>
+      <c r="BH23" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>18</v>
+      </c>
+      <c r="BI23" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>5.3999999999999995</v>
+      </c>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -5061,10 +5408,24 @@
       <c r="BE24">
         <v>0</v>
       </c>
-      <c r="BF24" s="6"/>
-      <c r="BG24" s="6"/>
+      <c r="BF24" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>3.5</v>
+      </c>
+      <c r="BG24" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>10.3</v>
+      </c>
+      <c r="BH24" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>10.1</v>
+      </c>
+      <c r="BI24" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>10.6</v>
+      </c>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -5221,10 +5582,24 @@
       <c r="BE25">
         <v>0</v>
       </c>
-      <c r="BF25" s="6"/>
-      <c r="BG25" s="6"/>
+      <c r="BF25" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>0</v>
+      </c>
+      <c r="BG25" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="BH25" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>13.8</v>
+      </c>
+      <c r="BI25" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>12</v>
+      </c>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -5381,10 +5756,24 @@
       <c r="BE26">
         <v>0</v>
       </c>
-      <c r="BF26" s="6"/>
-      <c r="BG26" s="6"/>
+      <c r="BF26" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>13.2</v>
+      </c>
+      <c r="BG26" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>4</v>
+      </c>
+      <c r="BH26" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>17.2</v>
+      </c>
+      <c r="BI26" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -5541,10 +5930,24 @@
       <c r="BE27">
         <v>2.1</v>
       </c>
-      <c r="BF27" s="6"/>
-      <c r="BG27" s="6"/>
+      <c r="BF27" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>9.6</v>
+      </c>
+      <c r="BG27" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>9.6</v>
+      </c>
+      <c r="BH27" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>16.2</v>
+      </c>
+      <c r="BI27" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>5.4</v>
+      </c>
     </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -5701,10 +6104,24 @@
       <c r="BE28">
         <v>0</v>
       </c>
-      <c r="BF28" s="6"/>
-      <c r="BG28" s="6"/>
+      <c r="BF28" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>6</v>
+      </c>
+      <c r="BG28" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>13.8</v>
+      </c>
+      <c r="BH28" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>16.8</v>
+      </c>
+      <c r="BI28" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>8.6999999999999993</v>
+      </c>
     </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -5861,10 +6278,24 @@
       <c r="BE29">
         <v>0</v>
       </c>
-      <c r="BF29" s="6"/>
-      <c r="BG29" s="6"/>
+      <c r="BF29" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>0</v>
+      </c>
+      <c r="BG29" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>16.2</v>
+      </c>
+      <c r="BH29" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>13.8</v>
+      </c>
+      <c r="BI29" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>3</v>
+      </c>
     </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -6021,10 +6452,24 @@
       <c r="BE30">
         <v>0</v>
       </c>
-      <c r="BF30" s="6"/>
-      <c r="BG30" s="6"/>
+      <c r="BF30" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>0</v>
+      </c>
+      <c r="BG30" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="BH30" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>13.899999999999999</v>
+      </c>
+      <c r="BI30" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>6.7</v>
+      </c>
     </row>
-    <row r="31" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -6181,10 +6626,24 @@
       <c r="BE31">
         <v>0</v>
       </c>
-      <c r="BF31" s="6"/>
-      <c r="BG31" s="6"/>
+      <c r="BF31" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>0</v>
+      </c>
+      <c r="BG31" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="BH31" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>12</v>
+      </c>
+      <c r="BI31" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>11.4</v>
+      </c>
     </row>
-    <row r="32" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -6341,10 +6800,24 @@
       <c r="BE32">
         <v>0</v>
       </c>
-      <c r="BF32" s="6"/>
-      <c r="BG32" s="6"/>
+      <c r="BF32" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>7</v>
+      </c>
+      <c r="BG32" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>10</v>
+      </c>
+      <c r="BH32" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>14.6</v>
+      </c>
+      <c r="BI32" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>7.6000000000000005</v>
+      </c>
     </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -6501,10 +6974,24 @@
       <c r="BE33">
         <v>0</v>
       </c>
-      <c r="BF33" s="6"/>
-      <c r="BG33" s="6"/>
+      <c r="BF33" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>6.6</v>
+      </c>
+      <c r="BG33" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>10.8</v>
+      </c>
+      <c r="BH33" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>15</v>
+      </c>
+      <c r="BI33" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>8.9</v>
+      </c>
     </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -6661,10 +7148,24 @@
       <c r="BE34">
         <v>0</v>
       </c>
-      <c r="BF34" s="6"/>
-      <c r="BG34" s="6"/>
+      <c r="BF34" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>6</v>
+      </c>
+      <c r="BG34" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>11.000000000000002</v>
+      </c>
+      <c r="BH34" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>14.600000000000001</v>
+      </c>
+      <c r="BI34" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>10.100000000000001</v>
+      </c>
     </row>
-    <row r="35" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -6821,8 +7322,22 @@
       <c r="BE35">
         <v>0</v>
       </c>
-      <c r="BF35" s="6"/>
-      <c r="BG35" s="6"/>
+      <c r="BF35" s="6">
+        <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
+        <v>10</v>
+      </c>
+      <c r="BG35" s="6">
+        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="BH35" s="6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+        <v>15.4</v>
+      </c>
+      <c r="BI35" s="6">
+        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/2c Data.xlsx
+++ b/2c Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomfox/Documents/Uni/2.3/2c-Data-Science/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66060722-2BCD-D342-BDED-0D5933C460CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF97D81-092B-D34E-B4C0-FF0635B4D999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="7180" windowWidth="30240" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="197">
   <si>
     <t>ID</t>
   </si>
@@ -206,21 +206,12 @@
     <t>Trees number</t>
   </si>
   <si>
-    <t>Trees width</t>
-  </si>
-  <si>
     <t>Other veg number</t>
   </si>
   <si>
-    <t>Other veg width</t>
-  </si>
-  <si>
     <t>Bike lane capacity</t>
   </si>
   <si>
-    <t>Bike lane width</t>
-  </si>
-  <si>
     <t>Cycle;Walk;</t>
   </si>
   <si>
@@ -308,9 +299,6 @@
     <t>Seating number</t>
   </si>
   <si>
-    <t>Seating width</t>
-  </si>
-  <si>
     <t>https://streetmix.net/tfox/7/2-out-2-yes</t>
   </si>
   <si>
@@ -326,12 +314,6 @@
     <t>Bike rack number</t>
   </si>
   <si>
-    <t>bike rack width</t>
-  </si>
-  <si>
-    <t>Transit shelter width</t>
-  </si>
-  <si>
     <t>tram lane number</t>
   </si>
   <si>
@@ -612,6 +594,39 @@
   </si>
   <si>
     <t>stationary_space</t>
+  </si>
+  <si>
+    <t>trees_width</t>
+  </si>
+  <si>
+    <t>other_veg_width</t>
+  </si>
+  <si>
+    <t>seating_width</t>
+  </si>
+  <si>
+    <t>transit_shelter_width</t>
+  </si>
+  <si>
+    <t>bike_rack_width</t>
+  </si>
+  <si>
+    <t>public_transport_width</t>
+  </si>
+  <si>
+    <t>bike_lane_width</t>
+  </si>
+  <si>
+    <t>number_of_lanes</t>
+  </si>
+  <si>
+    <t>number_of_elements</t>
+  </si>
+  <si>
+    <t>other_space</t>
+  </si>
+  <si>
+    <t>active_public_lanes</t>
   </si>
 </sst>
 </file>
@@ -678,7 +693,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="64">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -692,7 +707,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -701,10 +716,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -854,6 +869,21 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
@@ -870,15 +900,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:BI35" totalsRowShown="0">
-  <autoFilter ref="A1:BI35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="61">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Last modified time" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:BN35" totalsRowShown="0">
+  <autoFilter ref="A1:BN35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="66">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Last modified time" dataDxfId="58"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="age" dataDxfId="57"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="gender" dataDxfId="56"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="occupation" dataDxfId="55"/>
@@ -911,36 +941,49 @@
     <tableColumn id="49" xr3:uid="{1EA4B585-9067-CF4C-BB00-0A78400916DE}" name="tram lane capacity" dataDxfId="30"/>
     <tableColumn id="50" xr3:uid="{F86EBC00-9C78-234B-B571-54F21C18A65E}" name="tram lane width" dataDxfId="29"/>
     <tableColumn id="29" xr3:uid="{F5966B6A-5F14-4247-A1ED-63A308890583}" name="Trees number" dataDxfId="28"/>
-    <tableColumn id="30" xr3:uid="{6A8C2335-8FAD-8C49-8577-8365A2D4F436}" name="Trees width" dataDxfId="27"/>
+    <tableColumn id="30" xr3:uid="{6A8C2335-8FAD-8C49-8577-8365A2D4F436}" name="trees_width" dataDxfId="27"/>
     <tableColumn id="31" xr3:uid="{D701D35A-594F-5E48-B6D1-E5EB9E8A77E1}" name="Other veg number" dataDxfId="26"/>
-    <tableColumn id="32" xr3:uid="{8ABB60DC-DE38-8A43-ADA6-4D88D6E1A673}" name="Other veg width" dataDxfId="25"/>
+    <tableColumn id="32" xr3:uid="{8ABB60DC-DE38-8A43-ADA6-4D88D6E1A673}" name="other_veg_width" dataDxfId="25"/>
     <tableColumn id="33" xr3:uid="{F91FE42E-622C-FB49-BB7C-05C8E1D2A531}" name="Bike lane number (or scooter)" dataDxfId="24"/>
     <tableColumn id="34" xr3:uid="{2D402F4B-8B2B-C343-A6F5-6BB0BDEAC7A7}" name="Bike lane capacity" dataDxfId="23"/>
-    <tableColumn id="35" xr3:uid="{59F94568-FBC6-4240-A91B-D156365EF1D1}" name="Bike lane width" dataDxfId="22"/>
+    <tableColumn id="35" xr3:uid="{59F94568-FBC6-4240-A91B-D156365EF1D1}" name="bike_lane_width" dataDxfId="22"/>
     <tableColumn id="37" xr3:uid="{162C1B2A-BD76-9A4D-B6B6-4E49689921ED}" name="Commerce number" dataDxfId="21"/>
     <tableColumn id="38" xr3:uid="{B3614BBA-0DB8-D44C-AAED-37540AF843D0}" name="Commerce width" dataDxfId="20"/>
     <tableColumn id="39" xr3:uid="{68E94481-4668-644B-A29E-747474B3186F}" name="Seating number" dataDxfId="19"/>
-    <tableColumn id="40" xr3:uid="{2556B3F4-F651-0B49-AEA7-F185148D8624}" name="Seating width" dataDxfId="18"/>
+    <tableColumn id="40" xr3:uid="{2556B3F4-F651-0B49-AEA7-F185148D8624}" name="seating_width" dataDxfId="18"/>
     <tableColumn id="44" xr3:uid="{416EC1B7-83F7-3A44-9042-D8FE265E56FE}" name="Bike rack number" dataDxfId="17"/>
-    <tableColumn id="45" xr3:uid="{F311A9AE-E288-4844-912D-0FD5C88EB0E0}" name="bike rack width" dataDxfId="16"/>
+    <tableColumn id="45" xr3:uid="{F311A9AE-E288-4844-912D-0FD5C88EB0E0}" name="bike_rack_width" dataDxfId="16"/>
     <tableColumn id="46" xr3:uid="{3F614B3E-9CAE-B34B-8695-68DC53096C62}" name="Transit shelter number (or waiting area)" dataDxfId="15"/>
-    <tableColumn id="47" xr3:uid="{91908489-929F-B34A-BF66-7873A9B628A5}" name="Transit shelter width" dataDxfId="14"/>
+    <tableColumn id="47" xr3:uid="{91908489-929F-B34A-BF66-7873A9B628A5}" name="transit_shelter_width" dataDxfId="14"/>
     <tableColumn id="51" xr3:uid="{F0DBEFE0-C7ED-144A-8F06-ADE2AA30CBFD}" name="Wayfinding signs" dataDxfId="13"/>
     <tableColumn id="52" xr3:uid="{C7A907A5-E230-6B4B-8264-99F40673ECFF}" name="Streetlights number" dataDxfId="12"/>
     <tableColumn id="53" xr3:uid="{43DF922C-2AE9-5D42-84F6-FEEA27DD4FCE}" name="Streetlights width" dataDxfId="11"/>
     <tableColumn id="54" xr3:uid="{C3B891C1-ACD0-CE4A-990B-43A8810311C5}" name="Car parking lanes" dataDxfId="10"/>
     <tableColumn id="55" xr3:uid="{9CAEA4FE-1D93-A142-8347-61DEFC5E5834}" name="Car parking width" dataDxfId="9"/>
-    <tableColumn id="58" xr3:uid="{3C6E78FC-ADC0-3443-AF69-BD0906C0E1DB}" name="polluting_space" dataDxfId="3">
+    <tableColumn id="58" xr3:uid="{3C6E78FC-ADC0-3443-AF69-BD0906C0E1DB}" name="polluting_space" dataDxfId="8">
       <calculatedColumnFormula>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="59" xr3:uid="{F4FF0BD2-1D09-7749-A723-713931B8B546}" name="non-polluting_space" dataDxfId="2">
-      <calculatedColumnFormula>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</calculatedColumnFormula>
+    <tableColumn id="65" xr3:uid="{328DB3D3-B42C-4448-B137-46F1BF3A7F24}" name="other_space" dataDxfId="7">
+      <calculatedColumnFormula>27-Table1[[#This Row],[polluting_space]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="60" xr3:uid="{D39F3D8D-338A-9546-8E01-F36DA0E1F45B}" name="movement_space" dataDxfId="1">
-      <calculatedColumnFormula>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</calculatedColumnFormula>
+    <tableColumn id="59" xr3:uid="{F4FF0BD2-1D09-7749-A723-713931B8B546}" name="non-polluting_space" dataDxfId="6">
+      <calculatedColumnFormula>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="61" xr3:uid="{01B6E9EB-341B-3A41-A9CD-1A658BE75F39}" name="stationary_space" dataDxfId="0">
-      <calculatedColumnFormula>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</calculatedColumnFormula>
+    <tableColumn id="60" xr3:uid="{D39F3D8D-338A-9546-8E01-F36DA0E1F45B}" name="movement_space" dataDxfId="5">
+      <calculatedColumnFormula>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="61" xr3:uid="{01B6E9EB-341B-3A41-A9CD-1A658BE75F39}" name="stationary_space" dataDxfId="4">
+      <calculatedColumnFormula>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="62" xr3:uid="{00C09A04-655C-6646-A529-4122D538C25F}" name="public_transport_width" dataDxfId="3">
+      <calculatedColumnFormula>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="63" xr3:uid="{78CF42E8-1AAB-3941-9007-40A5082F81FA}" name="number_of_lanes" dataDxfId="2">
+      <calculatedColumnFormula>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="64" xr3:uid="{D2647DCC-EACC-C942-A261-A6EB866D300A}" name="number_of_elements" dataDxfId="1"/>
+    <tableColumn id="66" xr3:uid="{75256870-0F27-A74E-9B42-2089B5A962E5}" name="active_public_lanes" dataDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1244,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI35"/>
+  <dimension ref="A1:BN35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="BI3" sqref="BI3"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="BN3" sqref="BN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1256,7 +1299,7 @@
     <col min="20" max="20" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1276,61 +1319,61 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="J1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="K1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="M1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>177</v>
+      </c>
+      <c r="R1" t="s">
+        <v>178</v>
+      </c>
+      <c r="S1" t="s">
         <v>179</v>
       </c>
-      <c r="N1" t="s">
-        <v>180</v>
-      </c>
-      <c r="O1" t="s">
-        <v>181</v>
-      </c>
-      <c r="P1" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>183</v>
-      </c>
-      <c r="R1" t="s">
-        <v>184</v>
-      </c>
-      <c r="S1" t="s">
-        <v>185</v>
-      </c>
       <c r="T1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="U1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="V1" t="s">
         <v>36</v>
       </c>
       <c r="W1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="X1" t="s">
         <v>46</v>
       </c>
       <c r="Y1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Z1" t="s">
         <v>49</v>
@@ -1351,97 +1394,112 @@
         <v>54</v>
       </c>
       <c r="AF1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI1" t="s">
         <v>92</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>93</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>94</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>100</v>
       </c>
       <c r="AL1" t="s">
         <v>55</v>
       </c>
       <c r="AM1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN1" t="s">
         <v>56</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>57</v>
       </c>
-      <c r="AO1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>59</v>
-      </c>
       <c r="AR1" t="s">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="AS1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AT1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AU1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AV1" t="s">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="AW1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AX1" t="s">
-        <v>96</v>
+        <v>190</v>
       </c>
       <c r="AY1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AZ1" t="s">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="BA1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC1" t="s">
         <v>106</v>
       </c>
-      <c r="BB1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>112</v>
-      </c>
       <c r="BD1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="BE1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="BF1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="BG1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="BH1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="BI1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BK1" t="s">
         <v>191</v>
       </c>
+      <c r="BL1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>196</v>
+      </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1485,19 +1543,19 @@
         <v>16</v>
       </c>
       <c r="T2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="U2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="V2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="W2" t="s">
         <v>16</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Y2" s="4">
         <v>57000</v>
@@ -1598,24 +1656,43 @@
       <c r="BE2">
         <v>0</v>
       </c>
-      <c r="BF2" s="6">
+      <c r="BF2">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>6</v>
       </c>
-      <c r="BG2" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG2">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>21</v>
+      </c>
+      <c r="BH2">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>13.8</v>
       </c>
-      <c r="BH2" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI2">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>13.2</v>
       </c>
-      <c r="BI2" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ2">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>4.8</v>
       </c>
+      <c r="BK2">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>6</v>
+      </c>
+      <c r="BM2">
+        <v>16</v>
+      </c>
+      <c r="BN2" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1653,25 +1730,25 @@
         <v>9</v>
       </c>
       <c r="R3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="S3" t="s">
         <v>16</v>
       </c>
       <c r="T3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="U3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="V3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="W3" t="s">
         <v>9</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Y3" s="2">
         <v>64000</v>
@@ -1763,24 +1840,43 @@
       <c r="BE3">
         <v>0</v>
       </c>
-      <c r="BF3" s="6">
+      <c r="BF3">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>6.8</v>
       </c>
-      <c r="BG3" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG3">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>20.2</v>
+      </c>
+      <c r="BH3">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>9.8000000000000007</v>
       </c>
-      <c r="BH3" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI3">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>14</v>
       </c>
-      <c r="BI3" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ3">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>10.8</v>
       </c>
+      <c r="BK3">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>6.8</v>
+      </c>
+      <c r="BL3">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>6</v>
+      </c>
+      <c r="BM3">
+        <v>16</v>
+      </c>
+      <c r="BN3" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1824,19 +1920,19 @@
         <v>9</v>
       </c>
       <c r="T4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="U4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="V4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="W4" t="s">
         <v>16</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Y4" s="4">
         <v>90000</v>
@@ -1937,24 +2033,43 @@
       <c r="BE4">
         <v>0</v>
       </c>
-      <c r="BF4" s="6">
+      <c r="BF4">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>0</v>
       </c>
-      <c r="BG4" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG4">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>27</v>
+      </c>
+      <c r="BH4">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>22.199999999999996</v>
       </c>
-      <c r="BH4" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI4">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>17.400000000000002</v>
       </c>
-      <c r="BI4" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ4">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>4.8</v>
       </c>
+      <c r="BK4">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>7.2</v>
+      </c>
+      <c r="BL4">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>6</v>
+      </c>
+      <c r="BM4">
+        <v>12</v>
+      </c>
+      <c r="BN4" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1998,19 +2113,19 @@
         <v>16</v>
       </c>
       <c r="T5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="U5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="V5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="W5" t="s">
         <v>9</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Y5" s="2">
         <v>60500</v>
@@ -2111,24 +2226,43 @@
       <c r="BE5">
         <v>0</v>
       </c>
-      <c r="BF5" s="6">
+      <c r="BF5">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>6.6</v>
       </c>
-      <c r="BG5" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG5">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="BH5">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>14.6</v>
       </c>
-      <c r="BH5" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI5">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>15.799999999999999</v>
       </c>
-      <c r="BI5" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ5">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>5.2</v>
       </c>
+      <c r="BK5">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>3.6</v>
+      </c>
+      <c r="BL5">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>6</v>
+      </c>
+      <c r="BM5">
+        <v>14</v>
+      </c>
+      <c r="BN5" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2169,19 +2303,19 @@
         <v>16</v>
       </c>
       <c r="T6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="U6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="V6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="W6" t="s">
         <v>16</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Y6" s="2">
         <v>67000</v>
@@ -2282,24 +2416,43 @@
       <c r="BE6">
         <v>0</v>
       </c>
-      <c r="BF6" s="6">
+      <c r="BF6">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>13.2</v>
       </c>
-      <c r="BG6" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG6">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>13.8</v>
+      </c>
+      <c r="BH6">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>11.8</v>
       </c>
-      <c r="BH6" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI6">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>23.2</v>
       </c>
-      <c r="BI6" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
-        <v>0</v>
+      <c r="BJ6">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>7.2</v>
+      </c>
+      <c r="BL6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>8</v>
+      </c>
+      <c r="BM6">
+        <v>12</v>
+      </c>
+      <c r="BN6" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -2343,10 +2496,10 @@
         <v>16</v>
       </c>
       <c r="T7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="U7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="V7" t="s">
         <v>37</v>
@@ -2355,7 +2508,7 @@
         <v>16</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Y7" s="2">
         <v>93000</v>
@@ -2456,24 +2609,43 @@
       <c r="BE7">
         <v>0</v>
       </c>
-      <c r="BF7" s="6">
+      <c r="BF7">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>6.4</v>
       </c>
-      <c r="BG7" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG7">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>20.6</v>
+      </c>
+      <c r="BH7">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>19.2</v>
       </c>
-      <c r="BH7" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI7">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>21.2</v>
       </c>
-      <c r="BI7" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
-        <v>0</v>
+      <c r="BJ7">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>6</v>
+      </c>
+      <c r="BL7">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>8</v>
+      </c>
+      <c r="BM7">
+        <v>14</v>
+      </c>
+      <c r="BN7" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -2517,10 +2689,10 @@
         <v>16</v>
       </c>
       <c r="T8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="U8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="V8" t="s">
         <v>38</v>
@@ -2529,7 +2701,7 @@
         <v>9</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="Y8" s="2">
         <v>75000</v>
@@ -2630,24 +2802,43 @@
       <c r="BE8">
         <v>0</v>
       </c>
-      <c r="BF8" s="6">
+      <c r="BF8">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>6</v>
       </c>
-      <c r="BG8" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG8">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>21</v>
+      </c>
+      <c r="BH8">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>14.299999999999999</v>
       </c>
-      <c r="BH8" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI8">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>19.100000000000001</v>
       </c>
-      <c r="BI8" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ8">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>5.4</v>
       </c>
+      <c r="BK8">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>3.6</v>
+      </c>
+      <c r="BL8">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>7</v>
+      </c>
+      <c r="BM8">
+        <v>12</v>
+      </c>
+      <c r="BN8" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -2691,10 +2882,10 @@
         <v>9</v>
       </c>
       <c r="T9" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="U9" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="V9" t="s">
         <v>39</v>
@@ -2703,7 +2894,7 @@
         <v>16</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Y9" s="2">
         <v>62000</v>
@@ -2804,24 +2995,43 @@
       <c r="BE9">
         <v>0</v>
       </c>
-      <c r="BF9" s="6">
+      <c r="BF9">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>9.6</v>
       </c>
-      <c r="BG9" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG9">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="BH9">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>10.5</v>
       </c>
-      <c r="BH9" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI9">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>16.5</v>
       </c>
-      <c r="BI9" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ9">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>2.7</v>
       </c>
+      <c r="BK9">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>3.6</v>
+      </c>
+      <c r="BL9">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>7</v>
+      </c>
+      <c r="BM9">
+        <v>17</v>
+      </c>
+      <c r="BN9" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -2865,10 +3075,10 @@
         <v>16</v>
       </c>
       <c r="T10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="U10" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="V10" t="s">
         <v>40</v>
@@ -2877,7 +3087,7 @@
         <v>9</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="Y10" s="2">
         <v>67000</v>
@@ -2978,24 +3188,43 @@
       <c r="BE10">
         <v>0</v>
       </c>
-      <c r="BF10" s="6">
+      <c r="BF10">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>11</v>
       </c>
-      <c r="BG10" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG10">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>16</v>
+      </c>
+      <c r="BH10">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>7.8</v>
       </c>
-      <c r="BH10" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI10">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>18.200000000000003</v>
       </c>
-      <c r="BI10" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ10">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>6</v>
       </c>
+      <c r="BK10">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>6.2</v>
+      </c>
+      <c r="BL10">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>8</v>
+      </c>
+      <c r="BM10">
+        <v>15</v>
+      </c>
+      <c r="BN10" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -3039,10 +3268,10 @@
         <v>16</v>
       </c>
       <c r="T11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="U11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="V11" t="s">
         <v>41</v>
@@ -3051,7 +3280,7 @@
         <v>16</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="Y11" s="2">
         <v>57000</v>
@@ -3152,24 +3381,43 @@
       <c r="BE11">
         <v>0</v>
       </c>
-      <c r="BF11" s="6">
+      <c r="BF11">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>6</v>
       </c>
-      <c r="BG11" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG11">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>21</v>
+      </c>
+      <c r="BH11">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>13.8</v>
       </c>
-      <c r="BH11" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI11">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>15</v>
       </c>
-      <c r="BI11" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
-        <v>0</v>
+      <c r="BJ11">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>6</v>
+      </c>
+      <c r="BM11">
+        <v>16</v>
+      </c>
+      <c r="BN11" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -3213,10 +3461,10 @@
         <v>16</v>
       </c>
       <c r="T12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="U12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="V12" t="s">
         <v>42</v>
@@ -3225,7 +3473,7 @@
         <v>9</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="Y12" s="2">
         <v>109000</v>
@@ -3326,24 +3574,43 @@
       <c r="BE12">
         <v>0</v>
       </c>
-      <c r="BF12" s="6">
+      <c r="BF12">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>6.7</v>
       </c>
-      <c r="BG12" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG12">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>20.3</v>
+      </c>
+      <c r="BH12">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>14.600000000000001</v>
       </c>
-      <c r="BH12" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI12">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>20.300000000000004</v>
       </c>
-      <c r="BI12" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ12">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>7.2</v>
       </c>
+      <c r="BK12">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>13.100000000000001</v>
+      </c>
+      <c r="BL12">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>8</v>
+      </c>
+      <c r="BM12">
+        <v>15</v>
+      </c>
+      <c r="BN12" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>8</v>
+      </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3384,10 +3651,10 @@
         <v>16</v>
       </c>
       <c r="T13" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="U13" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="V13" t="s">
         <v>43</v>
@@ -3497,24 +3764,43 @@
       <c r="BE13">
         <v>0</v>
       </c>
-      <c r="BF13" s="6">
+      <c r="BF13">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>11.2</v>
       </c>
-      <c r="BG13" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG13">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>15.8</v>
+      </c>
+      <c r="BH13">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>12.5</v>
       </c>
-      <c r="BH13" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI13">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>22</v>
       </c>
-      <c r="BI13" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ13">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>3</v>
       </c>
+      <c r="BK13">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>6.4</v>
+      </c>
+      <c r="BL13">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>10</v>
+      </c>
+      <c r="BM13">
+        <v>17</v>
+      </c>
+      <c r="BN13" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>8</v>
+      </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -3555,10 +3841,10 @@
         <v>16</v>
       </c>
       <c r="T14" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="U14" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="V14" t="s">
         <v>44</v>
@@ -3567,7 +3853,7 @@
         <v>9</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="Y14" s="2">
         <v>64000</v>
@@ -3668,24 +3954,43 @@
       <c r="BE14">
         <v>0</v>
       </c>
-      <c r="BF14" s="6">
+      <c r="BF14">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>7.2</v>
       </c>
-      <c r="BG14" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG14">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>19.8</v>
+      </c>
+      <c r="BH14">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>10.8</v>
       </c>
-      <c r="BH14" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI14">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>14.4</v>
       </c>
-      <c r="BI14" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ14">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>11.8</v>
       </c>
+      <c r="BK14">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>7.2</v>
+      </c>
+      <c r="BL14">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>6</v>
+      </c>
+      <c r="BM14">
+        <v>16</v>
+      </c>
+      <c r="BN14" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3729,10 +4034,10 @@
         <v>16</v>
       </c>
       <c r="T15" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="U15" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="V15" t="s">
         <v>45</v>
@@ -3842,24 +4147,43 @@
       <c r="BE15">
         <v>0</v>
       </c>
-      <c r="BF15" s="6">
+      <c r="BF15">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>0</v>
       </c>
-      <c r="BG15" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG15">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>27</v>
+      </c>
+      <c r="BH15">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>17</v>
       </c>
-      <c r="BH15" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI15">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>15.799999999999999</v>
       </c>
-      <c r="BI15" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ15">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>7.6</v>
       </c>
+      <c r="BK15">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>7.2</v>
+      </c>
+      <c r="BL15">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>6</v>
+      </c>
+      <c r="BM15">
+        <v>14</v>
+      </c>
+      <c r="BN15" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3903,19 +4227,19 @@
         <v>16</v>
       </c>
       <c r="T16" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="U16" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="V16" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="W16" t="s">
         <v>9</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="Y16" s="2">
         <v>72000</v>
@@ -4016,24 +4340,43 @@
       <c r="BE16">
         <v>0</v>
       </c>
-      <c r="BF16" s="6">
+      <c r="BF16">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>0</v>
       </c>
-      <c r="BG16" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG16">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>27</v>
+      </c>
+      <c r="BH16">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>16.899999999999999</v>
       </c>
-      <c r="BH16" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI16">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>10.6</v>
       </c>
-      <c r="BI16" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ16">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>3.3</v>
       </c>
+      <c r="BK16">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>3</v>
+      </c>
+      <c r="BL16">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>5</v>
+      </c>
+      <c r="BM16">
+        <v>17</v>
+      </c>
+      <c r="BN16" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -4071,25 +4414,25 @@
         <v>9</v>
       </c>
       <c r="R17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="S17" t="s">
         <v>16</v>
       </c>
       <c r="T17" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="U17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="V17" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="W17" t="s">
         <v>16</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Y17" s="2">
         <v>64000</v>
@@ -4190,24 +4533,43 @@
       <c r="BE17">
         <v>0</v>
       </c>
-      <c r="BF17" s="6">
+      <c r="BF17">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>7.2</v>
       </c>
-      <c r="BG17" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG17">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>19.8</v>
+      </c>
+      <c r="BH17">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>11.7</v>
       </c>
-      <c r="BH17" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI17">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>17.2</v>
       </c>
-      <c r="BI17" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ17">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>9.3000000000000007</v>
       </c>
+      <c r="BK17">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>7.2</v>
+      </c>
+      <c r="BL17">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>6</v>
+      </c>
+      <c r="BM17">
+        <v>15</v>
+      </c>
+      <c r="BN17" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -4227,7 +4589,7 @@
         <v>16</v>
       </c>
       <c r="L18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M18" t="s">
         <v>12</v>
@@ -4245,25 +4607,25 @@
         <v>9</v>
       </c>
       <c r="R18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="S18" t="s">
         <v>9</v>
       </c>
       <c r="T18" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="U18" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="V18" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="W18" t="s">
         <v>9</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="Y18" s="2">
         <v>90000</v>
@@ -4364,24 +4726,43 @@
       <c r="BE18">
         <v>0</v>
       </c>
-      <c r="BF18" s="6">
+      <c r="BF18">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>0</v>
       </c>
-      <c r="BG18" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG18">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>27</v>
+      </c>
+      <c r="BH18">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>22.3</v>
       </c>
-      <c r="BH18" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI18">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>14.9</v>
       </c>
-      <c r="BI18" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ18">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>8.3999999999999986</v>
       </c>
+      <c r="BK18">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>6</v>
+      </c>
+      <c r="BL18">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>6</v>
+      </c>
+      <c r="BM18">
+        <v>18</v>
+      </c>
+      <c r="BN18" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -4401,10 +4782,10 @@
         <v>9</v>
       </c>
       <c r="K19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M19" t="s">
         <v>12</v>
@@ -4422,25 +4803,25 @@
         <v>9</v>
       </c>
       <c r="R19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S19" t="s">
         <v>16</v>
       </c>
       <c r="T19" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="U19" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="V19" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="W19" t="s">
         <v>9</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="Y19" s="2">
         <v>40000</v>
@@ -4541,24 +4922,43 @@
       <c r="BE19">
         <v>0</v>
       </c>
-      <c r="BF19" s="6">
+      <c r="BF19">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>7.2</v>
       </c>
-      <c r="BG19" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG19">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>19.8</v>
+      </c>
+      <c r="BH19">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>11</v>
       </c>
-      <c r="BH19" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI19">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>10.8</v>
       </c>
-      <c r="BI19" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ19">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>12.9</v>
       </c>
+      <c r="BK19">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>7.2</v>
+      </c>
+      <c r="BL19">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>4</v>
+      </c>
+      <c r="BM19">
+        <v>18</v>
+      </c>
+      <c r="BN19" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -4596,25 +4996,25 @@
         <v>9</v>
       </c>
       <c r="R20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="S20" t="s">
         <v>16</v>
       </c>
       <c r="T20" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="U20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="V20" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="W20" t="s">
         <v>16</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="Y20" s="2">
         <v>72000</v>
@@ -4715,24 +5115,43 @@
       <c r="BE20">
         <v>0</v>
       </c>
-      <c r="BF20" s="6">
+      <c r="BF20">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>0</v>
       </c>
-      <c r="BG20" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG20">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>27</v>
+      </c>
+      <c r="BH20">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>17.099999999999998</v>
       </c>
-      <c r="BH20" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI20">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>12.7</v>
       </c>
-      <c r="BI20" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ20">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>11.399999999999999</v>
       </c>
+      <c r="BK20">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>3.5</v>
+      </c>
+      <c r="BL20">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>5</v>
+      </c>
+      <c r="BM20">
+        <v>16</v>
+      </c>
+      <c r="BN20" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -4746,7 +5165,7 @@
         <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J21" t="s">
         <v>16</v>
@@ -4770,25 +5189,25 @@
         <v>9</v>
       </c>
       <c r="R21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S21" t="s">
         <v>16</v>
       </c>
       <c r="T21" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="U21" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="V21" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="W21" t="s">
         <v>9</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="Y21" s="2">
         <v>66000</v>
@@ -4889,24 +5308,43 @@
       <c r="BE21">
         <v>0</v>
       </c>
-      <c r="BF21" s="6">
+      <c r="BF21">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>0</v>
       </c>
-      <c r="BG21" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG21">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>27</v>
+      </c>
+      <c r="BH21">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>14.8</v>
       </c>
-      <c r="BH21" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI21">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>10.8</v>
       </c>
-      <c r="BI21" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ21">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>9.7999999999999989</v>
       </c>
+      <c r="BK21">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>7.2</v>
+      </c>
+      <c r="BL21">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>4</v>
+      </c>
+      <c r="BM21">
+        <v>16</v>
+      </c>
+      <c r="BN21" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -4950,19 +5388,19 @@
         <v>16</v>
       </c>
       <c r="T22" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="U22" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="V22" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="W22" t="s">
         <v>16</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y22" s="2">
         <v>40000</v>
@@ -5063,24 +5501,43 @@
       <c r="BE22">
         <v>0</v>
       </c>
-      <c r="BF22" s="6">
+      <c r="BF22">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>7.2</v>
       </c>
-      <c r="BG22" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG22">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>19.8</v>
+      </c>
+      <c r="BH22">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>10.8</v>
       </c>
-      <c r="BH22" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI22">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>13.600000000000001</v>
       </c>
-      <c r="BI22" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ22">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>6.2</v>
       </c>
+      <c r="BK22">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>7.2</v>
+      </c>
+      <c r="BL22">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>4</v>
+      </c>
+      <c r="BM22">
+        <v>17</v>
+      </c>
+      <c r="BN22" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -5100,7 +5557,7 @@
         <v>16</v>
       </c>
       <c r="L23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M23" t="s">
         <v>12</v>
@@ -5118,25 +5575,25 @@
         <v>9</v>
       </c>
       <c r="R23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="S23" t="s">
         <v>16</v>
       </c>
       <c r="T23" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="U23" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="V23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="W23" t="s">
         <v>9</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="Y23" s="2">
         <v>90000</v>
@@ -5237,24 +5694,43 @@
       <c r="BE23">
         <v>0</v>
       </c>
-      <c r="BF23" s="6">
+      <c r="BF23">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>0</v>
       </c>
-      <c r="BG23" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG23">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>27</v>
+      </c>
+      <c r="BH23">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>27.599999999999998</v>
       </c>
-      <c r="BH23" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI23">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>18</v>
       </c>
-      <c r="BI23" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ23">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>5.3999999999999995</v>
       </c>
+      <c r="BK23">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>7.2</v>
+      </c>
+      <c r="BL23">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>6</v>
+      </c>
+      <c r="BM23">
+        <v>14</v>
+      </c>
+      <c r="BN23" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -5289,25 +5765,25 @@
         <v>9</v>
       </c>
       <c r="R24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="S24" t="s">
         <v>16</v>
       </c>
       <c r="T24" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="U24" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="V24" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="W24" t="s">
         <v>16</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Y24" s="2">
         <v>68000</v>
@@ -5408,24 +5884,43 @@
       <c r="BE24">
         <v>0</v>
       </c>
-      <c r="BF24" s="6">
+      <c r="BF24">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>3.5</v>
       </c>
-      <c r="BG24" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG24">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>23.5</v>
+      </c>
+      <c r="BH24">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>10.3</v>
       </c>
-      <c r="BH24" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI24">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>10.1</v>
       </c>
-      <c r="BI24" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ24">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>10.6</v>
       </c>
+      <c r="BK24">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>3.5</v>
+      </c>
+      <c r="BL24">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>5</v>
+      </c>
+      <c r="BM24">
+        <v>16</v>
+      </c>
+      <c r="BN24" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -5463,25 +5958,25 @@
         <v>9</v>
       </c>
       <c r="R25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="S25" t="s">
         <v>16</v>
       </c>
       <c r="T25" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="U25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="V25" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="W25" t="s">
         <v>9</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="Y25" s="2">
         <v>66000</v>
@@ -5582,24 +6077,43 @@
       <c r="BE25">
         <v>0</v>
       </c>
-      <c r="BF25" s="6">
+      <c r="BF25">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>0</v>
       </c>
-      <c r="BG25" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG25">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>27</v>
+      </c>
+      <c r="BH25">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>19.399999999999999</v>
       </c>
-      <c r="BH25" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI25">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>13.8</v>
       </c>
-      <c r="BI25" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ25">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>12</v>
       </c>
+      <c r="BK25">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>7.2</v>
+      </c>
+      <c r="BL25">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>4</v>
+      </c>
+      <c r="BM25">
+        <v>10</v>
+      </c>
+      <c r="BN25" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -5613,7 +6127,7 @@
         <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J26" t="s">
         <v>16</v>
@@ -5637,25 +6151,25 @@
         <v>9</v>
       </c>
       <c r="R26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="S26" t="s">
         <v>16</v>
       </c>
       <c r="T26" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="U26" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="V26" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="W26" t="s">
         <v>16</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Y26" s="2">
         <v>58000</v>
@@ -5756,24 +6270,43 @@
       <c r="BE26">
         <v>0</v>
       </c>
-      <c r="BF26" s="6">
+      <c r="BF26">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>13.2</v>
       </c>
-      <c r="BG26" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG26">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>13.8</v>
+      </c>
+      <c r="BH26">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>4</v>
       </c>
-      <c r="BH26" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI26">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>17.2</v>
       </c>
-      <c r="BI26" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ26">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>6</v>
       </c>
+      <c r="BK26">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>7.2</v>
+      </c>
+      <c r="BL26">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>6</v>
+      </c>
+      <c r="BM26">
+        <v>13</v>
+      </c>
+      <c r="BN26" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -5781,13 +6314,13 @@
       <c r="C27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H27" t="s">
         <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J27" t="s">
         <v>16</v>
@@ -5811,25 +6344,25 @@
         <v>9</v>
       </c>
       <c r="R27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S27" t="s">
         <v>16</v>
       </c>
       <c r="T27" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="U27" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="V27" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="W27" t="s">
         <v>9</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="Y27" s="2">
         <v>62000</v>
@@ -5930,24 +6463,43 @@
       <c r="BE27">
         <v>2.1</v>
       </c>
-      <c r="BF27" s="6">
+      <c r="BF27">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>9.6</v>
       </c>
-      <c r="BG27" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG27">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="BH27">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>9.6</v>
       </c>
-      <c r="BH27" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI27">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>16.2</v>
       </c>
-      <c r="BI27" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ27">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>5.4</v>
       </c>
+      <c r="BK27">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>3.6</v>
+      </c>
+      <c r="BL27">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>7</v>
+      </c>
+      <c r="BM27">
+        <v>16</v>
+      </c>
+      <c r="BN27" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -5961,7 +6513,7 @@
         <v>7</v>
       </c>
       <c r="I28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J28" t="s">
         <v>9</v>
@@ -5991,19 +6543,19 @@
         <v>16</v>
       </c>
       <c r="T28" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="U28" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="V28" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="W28" t="s">
         <v>16</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="Y28" s="2">
         <v>75000</v>
@@ -6104,24 +6656,43 @@
       <c r="BE28">
         <v>0</v>
       </c>
-      <c r="BF28" s="6">
+      <c r="BF28">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>6</v>
       </c>
-      <c r="BG28" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG28">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>21</v>
+      </c>
+      <c r="BH28">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>13.8</v>
       </c>
-      <c r="BH28" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI28">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>16.8</v>
       </c>
-      <c r="BI28" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ28">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>8.6999999999999993</v>
       </c>
+      <c r="BK28">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>3.6</v>
+      </c>
+      <c r="BL28">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>7</v>
+      </c>
+      <c r="BM28">
+        <v>17</v>
+      </c>
+      <c r="BN28" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="29" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -6165,19 +6736,19 @@
         <v>16</v>
       </c>
       <c r="T29" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="U29" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="V29" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="W29" t="s">
         <v>16</v>
       </c>
       <c r="X29" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Y29" s="2">
         <v>66000</v>
@@ -6278,24 +6849,43 @@
       <c r="BE29">
         <v>0</v>
       </c>
-      <c r="BF29" s="6">
+      <c r="BF29">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>0</v>
       </c>
-      <c r="BG29" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG29">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>27</v>
+      </c>
+      <c r="BH29">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>16.2</v>
       </c>
-      <c r="BH29" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI29">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>13.8</v>
       </c>
-      <c r="BI29" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ29">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>3</v>
       </c>
+      <c r="BK29">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>7.2</v>
+      </c>
+      <c r="BL29">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>4</v>
+      </c>
+      <c r="BM29">
+        <v>12</v>
+      </c>
+      <c r="BN29" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -6309,7 +6899,7 @@
         <v>7</v>
       </c>
       <c r="I30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J30" t="s">
         <v>16</v>
@@ -6333,25 +6923,25 @@
         <v>9</v>
       </c>
       <c r="R30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S30" t="s">
         <v>9</v>
       </c>
       <c r="T30" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="U30" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="V30" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="W30" t="s">
         <v>9</v>
       </c>
       <c r="X30" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="Y30" s="2">
         <v>90000</v>
@@ -6452,24 +7042,43 @@
       <c r="BE30">
         <v>0</v>
       </c>
-      <c r="BF30" s="6">
+      <c r="BF30">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>0</v>
       </c>
-      <c r="BG30" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG30">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>27</v>
+      </c>
+      <c r="BH30">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>19.399999999999999</v>
       </c>
-      <c r="BH30" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI30">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>13.899999999999999</v>
       </c>
-      <c r="BI30" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ30">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>6.7</v>
       </c>
+      <c r="BK30">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>7.1</v>
+      </c>
+      <c r="BL30">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>6</v>
+      </c>
+      <c r="BM30">
+        <v>16</v>
+      </c>
+      <c r="BN30" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="31" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -6483,7 +7092,7 @@
         <v>7</v>
       </c>
       <c r="I31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s">
         <v>16</v>
@@ -6507,25 +7116,25 @@
         <v>9</v>
       </c>
       <c r="R31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S31" t="s">
         <v>16</v>
       </c>
       <c r="T31" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="U31" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="V31" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="W31" t="s">
         <v>9</v>
       </c>
       <c r="X31" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="Y31" s="2">
         <v>72000</v>
@@ -6626,24 +7235,43 @@
       <c r="BE31">
         <v>0</v>
       </c>
-      <c r="BF31" s="6">
+      <c r="BF31">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>0</v>
       </c>
-      <c r="BG31" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG31">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>27</v>
+      </c>
+      <c r="BH31">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>14.399999999999999</v>
       </c>
-      <c r="BH31" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI31">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>12</v>
       </c>
-      <c r="BI31" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ31">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>11.4</v>
       </c>
+      <c r="BK31">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>3</v>
+      </c>
+      <c r="BL31">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>5</v>
+      </c>
+      <c r="BM31">
+        <v>16</v>
+      </c>
+      <c r="BN31" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="32" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -6657,7 +7285,7 @@
         <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s">
         <v>16</v>
@@ -6687,19 +7315,19 @@
         <v>16</v>
       </c>
       <c r="T32" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="U32" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="V32" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="W32" t="s">
         <v>16</v>
       </c>
       <c r="X32" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Y32" s="2">
         <v>57000</v>
@@ -6800,24 +7428,43 @@
       <c r="BE32">
         <v>0</v>
       </c>
-      <c r="BF32" s="6">
+      <c r="BF32">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>7</v>
       </c>
-      <c r="BG32" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG32">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>20</v>
+      </c>
+      <c r="BH32">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>10</v>
       </c>
-      <c r="BH32" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI32">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>14.6</v>
       </c>
-      <c r="BI32" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ32">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>7.6000000000000005</v>
       </c>
+      <c r="BK32">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>0</v>
+      </c>
+      <c r="BL32">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>6</v>
+      </c>
+      <c r="BM32">
+        <v>13</v>
+      </c>
+      <c r="BN32" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -6831,7 +7478,7 @@
         <v>7</v>
       </c>
       <c r="I33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s">
         <v>16</v>
@@ -6855,25 +7502,25 @@
         <v>9</v>
       </c>
       <c r="R33" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="S33" t="s">
         <v>16</v>
       </c>
       <c r="T33" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="U33" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="V33" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="W33" t="s">
         <v>9</v>
       </c>
       <c r="X33" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Y33" s="2">
         <v>60500</v>
@@ -6974,24 +7621,43 @@
       <c r="BE33">
         <v>0</v>
       </c>
-      <c r="BF33" s="6">
+      <c r="BF33">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>6.6</v>
       </c>
-      <c r="BG33" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG33">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="BH33">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>10.8</v>
       </c>
-      <c r="BH33" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI33">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>15</v>
       </c>
-      <c r="BI33" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ33">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>8.9</v>
       </c>
+      <c r="BK33">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>3.6</v>
+      </c>
+      <c r="BL33">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>6</v>
+      </c>
+      <c r="BM33">
+        <v>15</v>
+      </c>
+      <c r="BN33" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -6999,13 +7665,13 @@
       <c r="C34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H34" t="s">
         <v>21</v>
       </c>
       <c r="I34" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J34" t="s">
         <v>16</v>
@@ -7029,25 +7695,25 @@
         <v>9</v>
       </c>
       <c r="R34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="S34" t="s">
         <v>16</v>
       </c>
       <c r="T34" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="U34" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="V34" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="W34" t="s">
         <v>16</v>
       </c>
       <c r="X34" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Y34" s="2">
         <v>63000</v>
@@ -7148,24 +7814,43 @@
       <c r="BE34">
         <v>0</v>
       </c>
-      <c r="BF34" s="6">
+      <c r="BF34">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>6</v>
       </c>
-      <c r="BG34" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG34">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>21</v>
+      </c>
+      <c r="BH34">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>11.000000000000002</v>
       </c>
-      <c r="BH34" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI34">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>14.600000000000001</v>
       </c>
-      <c r="BI34" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ34">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>10.100000000000001</v>
       </c>
+      <c r="BK34">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>3.2</v>
+      </c>
+      <c r="BL34">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>6</v>
+      </c>
+      <c r="BM34">
+        <v>12</v>
+      </c>
+      <c r="BN34" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -7179,7 +7864,7 @@
         <v>7</v>
       </c>
       <c r="I35" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J35" t="s">
         <v>16</v>
@@ -7203,25 +7888,25 @@
         <v>9</v>
       </c>
       <c r="R35" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="S35" t="s">
         <v>16</v>
       </c>
       <c r="T35" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="U35" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="V35" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="W35" t="s">
         <v>9</v>
       </c>
       <c r="X35" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Y35" s="2">
         <v>71500</v>
@@ -7322,21 +8007,40 @@
       <c r="BE35">
         <v>0</v>
       </c>
-      <c r="BF35" s="6">
+      <c r="BF35">
         <f>Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]</f>
         <v>10</v>
       </c>
-      <c r="BG35" s="6">
-        <f>Table1[[#This Row],[Bike lane width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Trees width]]+Table1[[#This Row],[Other veg width]]</f>
+      <c r="BG35">
+        <f>27-Table1[[#This Row],[polluting_space]]</f>
+        <v>17</v>
+      </c>
+      <c r="BH35">
+        <f>Table1[[#This Row],[bike_lane_width]]+Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[trees_width]]+Table1[[#This Row],[other_veg_width]]</f>
         <v>6.6000000000000005</v>
       </c>
-      <c r="BH35" s="6">
-        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[Bike lane width]]</f>
+      <c r="BI35">
+        <f>Table1[[#This Row],[Sidewalk width]]+Table1[[#This Row],[Drive lane width]]+Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]+Table1[[#This Row],[bike_lane_width]]</f>
         <v>15.4</v>
       </c>
-      <c r="BI35" s="6">
-        <f>Table1[[#This Row],[Seating width]]+Table1[[#This Row],[bike rack width]]+Table1[[#This Row],[Transit shelter width]]</f>
+      <c r="BJ35">
+        <f>Table1[[#This Row],[seating_width]]+Table1[[#This Row],[bike_rack_width]]+Table1[[#This Row],[transit_shelter_width]]</f>
         <v>8</v>
+      </c>
+      <c r="BK35">
+        <f>Table1[[#This Row],[bus lane width]]+Table1[[#This Row],[tram lane width]]</f>
+        <v>7</v>
+      </c>
+      <c r="BL35">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[Drive lane number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>6</v>
+      </c>
+      <c r="BM35">
+        <v>12</v>
+      </c>
+      <c r="BN35" s="6">
+        <f>Table1[[#This Row],[Sidewalk number]]+Table1[[#This Row],[bus lane number]]+Table1[[#This Row],[tram lane number]]+Table1[[#This Row],[Bike lane number (or scooter)]]</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
